--- a/Calculations.xlsx
+++ b/Calculations.xlsx
@@ -19,21 +19,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Play</t>
   </si>
   <si>
-    <t>Pruned random F1</t>
+    <t>Random</t>
   </si>
   <si>
-    <t>Pruned most common F1</t>
+    <t>Most Common</t>
   </si>
   <si>
-    <t>Pruned system LIWC F1</t>
+    <t>LogReg LIWC</t>
   </si>
   <si>
-    <t>Pruned system word F1</t>
+    <t>LogReg word</t>
+  </si>
+  <si>
+    <t>Naïve Bayes LIWC</t>
+  </si>
+  <si>
+    <t>kNN LIWC</t>
+  </si>
+  <si>
+    <t>KMeans LIWC</t>
+  </si>
+  <si>
+    <t>Decision Tree LIWC</t>
+  </si>
+  <si>
+    <t>Avg</t>
   </si>
 </sst>
 </file>
@@ -122,10 +137,10 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="5"/>
+          <c:order val="5"/>
           <c:tx>
-            <c:v>Pruned Random</c:v>
+            <c:v>Random</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -369,257 +384,10 @@
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="6"/>
+          <c:order val="6"/>
           <c:tx>
-            <c:v>Pruned Most Common</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.07</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.29</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.07</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.07</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.07</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.07</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.07</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.11</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Pruned System LIWC</c:v>
+            <c:v>Logistic Regression</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -863,125 +631,1244 @@
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="7"/>
+          <c:order val="7"/>
           <c:tx>
-            <c:v>Pruned System Word</c:v>
+            <c:v>k Means</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$37</c:f>
+              <c:f>Sheet1!$H$2:$H$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>0.76</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>kNN</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.85</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.99</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.74</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.83</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.9</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.99</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.87</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.81</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.97</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.71</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.89</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.85</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.81</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.92</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.94</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.97</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.84</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.0</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.82</c:v>
+                  <c:v>0.57</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.71</c:v>
+                  <c:v>0.29</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.99</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.97</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.7</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.79</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.97</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.96</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.93</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.94</c:v>
+                  <c:v>0.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>Decision Tree</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.58</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.57</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Random</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="07B5FF"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Logistic Regression</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00A500"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0.28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>k Means</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>kNN</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.57</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.29</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Decision Tree</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.58</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.57</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -996,11 +1883,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2073802616"/>
-        <c:axId val="2073925272"/>
+        <c:axId val="2069441736"/>
+        <c:axId val="2069444680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2073802616"/>
+        <c:axId val="2069441736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1010,7 +1897,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073925272"/>
+        <c:crossAx val="2069444680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1018,7 +1905,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2073925272"/>
+        <c:axId val="2069444680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1059,7 +1946,306 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2073802616"/>
+        <c:crossAx val="2069441736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average classifier speaker prediction performance</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>with LIWC features on pruned dataset</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>k Means</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0758333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Decision Tree</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.595555555555555</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>kNN</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.531111111111111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Naive Bayes</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.341944444444444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Logistic Regression</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.385555555555556</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Random</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.166944444444444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Most Common</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.133333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2067920616"/>
+        <c:axId val="2067922888"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2067920616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2067922888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2067922888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>F1 Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2067920616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1101,16 +2287,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1124,6 +2310,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1454,21 +2672,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16">
+    <row r="1" spans="1:9" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1484,8 +2703,20 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="16">
+    <row r="2" spans="1:9" ht="16">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1501,8 +2732,20 @@
       <c r="E2" s="2">
         <v>0.76</v>
       </c>
+      <c r="F2" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.51</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="16">
+    <row r="3" spans="1:9" ht="16">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1518,8 +2761,20 @@
       <c r="E3" s="2">
         <v>0.85</v>
       </c>
+      <c r="F3" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.63</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="16">
+    <row r="4" spans="1:9" ht="16">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1535,8 +2790,20 @@
       <c r="E4" s="2">
         <v>0.96</v>
       </c>
+      <c r="F4" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.55000000000000004</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="16">
+    <row r="5" spans="1:9" ht="16">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1552,8 +2819,20 @@
       <c r="E5" s="2">
         <v>0.99</v>
       </c>
+      <c r="F5" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.61</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" ht="16">
+    <row r="6" spans="1:9" ht="16">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1569,8 +2848,20 @@
       <c r="E6" s="2">
         <v>0.74</v>
       </c>
+      <c r="F6" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.63</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" ht="16">
+    <row r="7" spans="1:9" ht="16">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1586,8 +2877,20 @@
       <c r="E7" s="2">
         <v>0.96</v>
       </c>
+      <c r="F7" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.47</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" ht="16">
+    <row r="8" spans="1:9" ht="16">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1603,8 +2906,20 @@
       <c r="E8" s="2">
         <v>0.64</v>
       </c>
+      <c r="F8" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" ht="16">
+    <row r="9" spans="1:9" ht="16">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1620,8 +2935,20 @@
       <c r="E9" s="2">
         <v>0.85</v>
       </c>
+      <c r="F9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.77</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" ht="16">
+    <row r="10" spans="1:9" ht="16">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1637,8 +2964,20 @@
       <c r="E10" s="2">
         <v>0.83</v>
       </c>
+      <c r="F10" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.56999999999999995</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" ht="16">
+    <row r="11" spans="1:9" ht="16">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1654,8 +2993,20 @@
       <c r="E11" s="2">
         <v>1</v>
       </c>
+      <c r="F11" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.77</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" ht="16">
+    <row r="12" spans="1:9" ht="16">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1671,8 +3022,20 @@
       <c r="E12" s="2">
         <v>0.9</v>
       </c>
+      <c r="F12" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" ht="16">
+    <row r="13" spans="1:9" ht="16">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1688,8 +3051,20 @@
       <c r="E13" s="2">
         <v>0.99</v>
       </c>
+      <c r="F13" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.55000000000000004</v>
+      </c>
     </row>
-    <row r="14" spans="1:5" ht="16">
+    <row r="14" spans="1:9" ht="16">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1705,8 +3080,20 @@
       <c r="E14" s="2">
         <v>0.87</v>
       </c>
+      <c r="F14" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.57999999999999996</v>
+      </c>
     </row>
-    <row r="15" spans="1:5" ht="16">
+    <row r="15" spans="1:9" ht="16">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1722,8 +3109,20 @@
       <c r="E15" s="2">
         <v>0.81</v>
       </c>
+      <c r="F15" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="H15" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.65</v>
+      </c>
     </row>
-    <row r="16" spans="1:5" ht="16">
+    <row r="16" spans="1:9" ht="16">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1739,8 +3138,20 @@
       <c r="E16" s="2">
         <v>0.97</v>
       </c>
+      <c r="F16" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.55000000000000004</v>
+      </c>
     </row>
-    <row r="17" spans="1:5" ht="16">
+    <row r="17" spans="1:9" ht="16">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1756,8 +3167,20 @@
       <c r="E17" s="2">
         <v>0.71</v>
       </c>
+      <c r="F17" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.59</v>
+      </c>
     </row>
-    <row r="18" spans="1:5" ht="16">
+    <row r="18" spans="1:9" ht="16">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1773,8 +3196,20 @@
       <c r="E18" s="2">
         <v>0.89</v>
       </c>
+      <c r="F18" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="19" spans="1:5" ht="16">
+    <row r="19" spans="1:9" ht="16">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1790,8 +3225,20 @@
       <c r="E19" s="2">
         <v>0.85</v>
       </c>
+      <c r="F19" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.53</v>
+      </c>
     </row>
-    <row r="20" spans="1:5" ht="16">
+    <row r="20" spans="1:9" ht="16">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1807,8 +3254,20 @@
       <c r="E20" s="2">
         <v>0.81</v>
       </c>
+      <c r="F20" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.56999999999999995</v>
+      </c>
     </row>
-    <row r="21" spans="1:5" ht="16">
+    <row r="21" spans="1:9" ht="16">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -1824,8 +3283,20 @@
       <c r="E21" s="2">
         <v>0.92</v>
       </c>
+      <c r="F21" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.65</v>
+      </c>
     </row>
-    <row r="22" spans="1:5" ht="16">
+    <row r="22" spans="1:9" ht="16">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1841,8 +3312,20 @@
       <c r="E22" s="2">
         <v>0.94</v>
       </c>
+      <c r="F22" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="23" spans="1:5" ht="16">
+    <row r="23" spans="1:9" ht="16">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -1858,8 +3341,20 @@
       <c r="E23" s="2">
         <v>1</v>
       </c>
+      <c r="F23" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.49</v>
+      </c>
     </row>
-    <row r="24" spans="1:5" ht="16">
+    <row r="24" spans="1:9" ht="16">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1875,8 +3370,20 @@
       <c r="E24" s="2">
         <v>0.97</v>
       </c>
+      <c r="F24" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.54</v>
+      </c>
     </row>
-    <row r="25" spans="1:5" ht="16">
+    <row r="25" spans="1:9" ht="16">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -1892,8 +3399,20 @@
       <c r="E25" s="2">
         <v>0.84</v>
       </c>
+      <c r="F25" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="26" spans="1:5" ht="16">
+    <row r="26" spans="1:9" ht="16">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -1909,8 +3428,20 @@
       <c r="E26" s="2">
         <v>1</v>
       </c>
+      <c r="F26" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.65</v>
+      </c>
     </row>
-    <row r="27" spans="1:5" ht="16">
+    <row r="27" spans="1:9" ht="16">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -1926,8 +3457,20 @@
       <c r="E27" s="2">
         <v>0.82</v>
       </c>
+      <c r="F27" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.73</v>
+      </c>
     </row>
-    <row r="28" spans="1:5" ht="16">
+    <row r="28" spans="1:9" ht="16">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -1943,8 +3486,20 @@
       <c r="E28" s="2">
         <v>0.71</v>
       </c>
+      <c r="F28" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0.47</v>
+      </c>
     </row>
-    <row r="29" spans="1:5" ht="16">
+    <row r="29" spans="1:9" ht="16">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -1960,8 +3515,20 @@
       <c r="E29" s="2">
         <v>0.99</v>
       </c>
+      <c r="F29" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.49</v>
+      </c>
     </row>
-    <row r="30" spans="1:5" ht="16">
+    <row r="30" spans="1:9" ht="16">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -1977,8 +3544,20 @@
       <c r="E30" s="2">
         <v>0.97</v>
       </c>
+      <c r="F30" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="31" spans="1:5" ht="16">
+    <row r="31" spans="1:9" ht="16">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -1994,8 +3573,20 @@
       <c r="E31" s="2">
         <v>0.7</v>
       </c>
+      <c r="F31" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0.71</v>
+      </c>
     </row>
-    <row r="32" spans="1:5" ht="16">
+    <row r="32" spans="1:9" ht="16">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -2011,8 +3602,20 @@
       <c r="E32" s="2">
         <v>0.83</v>
       </c>
+      <c r="F32" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0.83</v>
+      </c>
     </row>
-    <row r="33" spans="1:5" ht="16">
+    <row r="33" spans="1:9" ht="16">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -2028,8 +3631,20 @@
       <c r="E33" s="2">
         <v>0.79</v>
       </c>
+      <c r="F33" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="34" spans="1:5" ht="16">
+    <row r="34" spans="1:9" ht="16">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -2045,8 +3660,20 @@
       <c r="E34" s="2">
         <v>0.97</v>
       </c>
+      <c r="F34" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0.44</v>
+      </c>
     </row>
-    <row r="35" spans="1:5" ht="16">
+    <row r="35" spans="1:9" ht="16">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -2062,8 +3689,20 @@
       <c r="E35" s="2">
         <v>0.96</v>
       </c>
+      <c r="F35" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0.68</v>
+      </c>
     </row>
-    <row r="36" spans="1:5" ht="16">
+    <row r="36" spans="1:9" ht="16">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -2079,8 +3718,20 @@
       <c r="E36" s="2">
         <v>0.93</v>
       </c>
+      <c r="F36" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0.61</v>
+      </c>
     </row>
-    <row r="37" spans="1:5" ht="16">
+    <row r="37" spans="1:9" ht="16">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -2095,6 +3746,55 @@
       </c>
       <c r="E37" s="2">
         <v>0.94</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <f>AVERAGE(B2:B37)</f>
+        <v>0.1669444444444444</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:I39" si="0">AVERAGE(C2:C37)</f>
+        <v>0.13333333333333336</v>
+      </c>
+      <c r="D39">
+        <f>AVERAGE(D2:D37)</f>
+        <v>0.38555555555555565</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>0.87944444444444436</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>0.34194444444444438</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>0.53111111111111109</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>7.5833333333333308E-2</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>0.5955555555555555</v>
       </c>
     </row>
   </sheetData>

--- a/Calculations.xlsx
+++ b/Calculations.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Play</t>
   </si>
@@ -36,19 +36,31 @@
     <t>LogReg word</t>
   </si>
   <si>
-    <t>Naïve Bayes LIWC</t>
-  </si>
-  <si>
     <t>kNN LIWC</t>
   </si>
   <si>
     <t>KMeans LIWC</t>
   </si>
   <si>
-    <t>Decision Tree LIWC</t>
+    <t>Avg</t>
   </si>
   <si>
-    <t>Avg</t>
+    <t>NB word</t>
+  </si>
+  <si>
+    <t>kNN word</t>
+  </si>
+  <si>
+    <t>DT word</t>
+  </si>
+  <si>
+    <t>NB LIWC</t>
+  </si>
+  <si>
+    <t>DT LIWC</t>
+  </si>
+  <si>
+    <t>KMeans word</t>
   </si>
 </sst>
 </file>
@@ -1883,11 +1895,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2069441736"/>
-        <c:axId val="2069444680"/>
+        <c:axId val="2055759448"/>
+        <c:axId val="2055762472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2069441736"/>
+        <c:axId val="2055759448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1897,7 +1909,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2069444680"/>
+        <c:crossAx val="2055762472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1905,7 +1917,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2069444680"/>
+        <c:axId val="2055762472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1946,7 +1958,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2069441736"/>
+        <c:crossAx val="2055759448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2182,11 +2194,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2067920616"/>
-        <c:axId val="2067922888"/>
+        <c:axId val="2055812088"/>
+        <c:axId val="2055815064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2067920616"/>
+        <c:axId val="2055812088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2196,7 +2208,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2067922888"/>
+        <c:crossAx val="2055815064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2204,7 +2216,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2067922888"/>
+        <c:axId val="2055815064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2245,7 +2257,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2067920616"/>
+        <c:crossAx val="2055812088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2283,20 +2295,328 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average classifier speaker prediction performance</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>with word features on pruned dataset</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>k Means</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0461111111111111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Decision Tree</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.784444444444444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>kNN</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.248888888888889</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Naive Bayes</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.692777777777777</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Logistic Regression</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.879444444444444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Random</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.166944444444444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Most Common</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.133333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2053153672"/>
+        <c:axId val="2053156648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2053153672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2053156648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2053156648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>F1 Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2053153672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.78260800170249"/>
+          <c:y val="0.229325476472304"/>
+          <c:w val="0.214739625452224"/>
+          <c:h val="0.638042282385935"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2317,16 +2637,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2342,6 +2662,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2672,22 +3024,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16">
+    <row r="1" spans="1:13" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2704,19 +3062,31 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="16">
+    <row r="2" spans="1:13" ht="16">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -2744,8 +3114,20 @@
       <c r="I2" s="2">
         <v>0.51</v>
       </c>
+      <c r="J2" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.77</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" ht="16">
+    <row r="3" spans="1:13" ht="16">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2773,8 +3155,20 @@
       <c r="I3" s="2">
         <v>0.63</v>
       </c>
+      <c r="J3" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.76</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" ht="16">
+    <row r="4" spans="1:13" ht="16">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2802,8 +3196,20 @@
       <c r="I4" s="2">
         <v>0.55000000000000004</v>
       </c>
+      <c r="J4" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" ht="16">
+    <row r="5" spans="1:13" ht="16">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2831,8 +3237,20 @@
       <c r="I5" s="2">
         <v>0.61</v>
       </c>
+      <c r="J5" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.74</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" ht="16">
+    <row r="6" spans="1:13" ht="16">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2860,8 +3278,20 @@
       <c r="I6" s="2">
         <v>0.63</v>
       </c>
+      <c r="J6" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.76</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" ht="16">
+    <row r="7" spans="1:13" ht="16">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -2889,8 +3319,20 @@
       <c r="I7" s="2">
         <v>0.47</v>
       </c>
+      <c r="J7" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.78</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" ht="16">
+    <row r="8" spans="1:13" ht="16">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -2918,8 +3360,20 @@
       <c r="I8" s="2">
         <v>0.56000000000000005</v>
       </c>
+      <c r="J8" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.72</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" ht="16">
+    <row r="9" spans="1:13" ht="16">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -2947,8 +3401,20 @@
       <c r="I9" s="2">
         <v>0.77</v>
       </c>
+      <c r="J9" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.85</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" ht="16">
+    <row r="10" spans="1:13" ht="16">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -2976,8 +3442,20 @@
       <c r="I10" s="2">
         <v>0.56999999999999995</v>
       </c>
+      <c r="J10" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.83</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" ht="16">
+    <row r="11" spans="1:13" ht="16">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -3005,8 +3483,20 @@
       <c r="I11" s="2">
         <v>0.77</v>
       </c>
+      <c r="J11" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.91</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" ht="16">
+    <row r="12" spans="1:13" ht="16">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -3034,8 +3524,20 @@
       <c r="I12" s="2">
         <v>0.7</v>
       </c>
+      <c r="J12" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.91</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" ht="16">
+    <row r="13" spans="1:13" ht="16">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -3063,8 +3565,20 @@
       <c r="I13" s="2">
         <v>0.55000000000000004</v>
       </c>
+      <c r="J13" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.84</v>
+      </c>
     </row>
-    <row r="14" spans="1:9" ht="16">
+    <row r="14" spans="1:13" ht="16">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -3092,8 +3606,20 @@
       <c r="I14" s="2">
         <v>0.57999999999999996</v>
       </c>
+      <c r="J14" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.81</v>
+      </c>
     </row>
-    <row r="15" spans="1:9" ht="16">
+    <row r="15" spans="1:13" ht="16">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -3121,8 +3647,20 @@
       <c r="I15" s="2">
         <v>0.65</v>
       </c>
+      <c r="J15" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.81</v>
+      </c>
     </row>
-    <row r="16" spans="1:9" ht="16">
+    <row r="16" spans="1:13" ht="16">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -3150,8 +3688,20 @@
       <c r="I16" s="2">
         <v>0.55000000000000004</v>
       </c>
+      <c r="J16" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.85</v>
+      </c>
     </row>
-    <row r="17" spans="1:9" ht="16">
+    <row r="17" spans="1:13" ht="16">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -3179,8 +3729,20 @@
       <c r="I17" s="2">
         <v>0.59</v>
       </c>
+      <c r="J17" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.78</v>
+      </c>
     </row>
-    <row r="18" spans="1:9" ht="16">
+    <row r="18" spans="1:13" ht="16">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -3208,8 +3770,20 @@
       <c r="I18" s="2">
         <v>0.4</v>
       </c>
+      <c r="J18" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.75</v>
+      </c>
     </row>
-    <row r="19" spans="1:9" ht="16">
+    <row r="19" spans="1:13" ht="16">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -3237,8 +3811,20 @@
       <c r="I19" s="2">
         <v>0.53</v>
       </c>
+      <c r="J19" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0.73</v>
+      </c>
     </row>
-    <row r="20" spans="1:9" ht="16">
+    <row r="20" spans="1:13" ht="16">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -3266,8 +3852,20 @@
       <c r="I20" s="2">
         <v>0.56999999999999995</v>
       </c>
+      <c r="J20" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0.83</v>
+      </c>
     </row>
-    <row r="21" spans="1:9" ht="16">
+    <row r="21" spans="1:13" ht="16">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -3295,8 +3893,20 @@
       <c r="I21" s="2">
         <v>0.65</v>
       </c>
+      <c r="J21" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.75</v>
+      </c>
     </row>
-    <row r="22" spans="1:9" ht="16">
+    <row r="22" spans="1:13" ht="16">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -3324,8 +3934,20 @@
       <c r="I22" s="2">
         <v>0.7</v>
       </c>
+      <c r="J22" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0.71</v>
+      </c>
     </row>
-    <row r="23" spans="1:9" ht="16">
+    <row r="23" spans="1:13" ht="16">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -3353,8 +3975,20 @@
       <c r="I23" s="2">
         <v>0.49</v>
       </c>
+      <c r="J23" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.81</v>
+      </c>
     </row>
-    <row r="24" spans="1:9" ht="16">
+    <row r="24" spans="1:13" ht="16">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -3382,8 +4016,20 @@
       <c r="I24" s="2">
         <v>0.54</v>
       </c>
+      <c r="J24" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0.74</v>
+      </c>
     </row>
-    <row r="25" spans="1:9" ht="16">
+    <row r="25" spans="1:13" ht="16">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -3411,8 +4057,20 @@
       <c r="I25" s="2">
         <v>0.6</v>
       </c>
+      <c r="J25" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0.66</v>
+      </c>
     </row>
-    <row r="26" spans="1:9" ht="16">
+    <row r="26" spans="1:13" ht="16">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -3440,8 +4098,20 @@
       <c r="I26" s="2">
         <v>0.65</v>
       </c>
+      <c r="J26" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0.82</v>
+      </c>
     </row>
-    <row r="27" spans="1:9" ht="16">
+    <row r="27" spans="1:13" ht="16">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -3469,8 +4139,20 @@
       <c r="I27" s="2">
         <v>0.73</v>
       </c>
+      <c r="J27" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0.89</v>
+      </c>
     </row>
-    <row r="28" spans="1:9" ht="16">
+    <row r="28" spans="1:13" ht="16">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -3498,8 +4180,20 @@
       <c r="I28" s="2">
         <v>0.47</v>
       </c>
+      <c r="J28" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0.75</v>
+      </c>
     </row>
-    <row r="29" spans="1:9" ht="16">
+    <row r="29" spans="1:13" ht="16">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -3527,8 +4221,20 @@
       <c r="I29" s="2">
         <v>0.49</v>
       </c>
+      <c r="J29" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0.77</v>
+      </c>
     </row>
-    <row r="30" spans="1:9" ht="16">
+    <row r="30" spans="1:13" ht="16">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -3556,8 +4262,20 @@
       <c r="I30" s="2">
         <v>0.48</v>
       </c>
+      <c r="J30" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0.79</v>
+      </c>
     </row>
-    <row r="31" spans="1:9" ht="16">
+    <row r="31" spans="1:13" ht="16">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -3585,8 +4303,20 @@
       <c r="I31" s="2">
         <v>0.71</v>
       </c>
+      <c r="J31" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0.85</v>
+      </c>
     </row>
-    <row r="32" spans="1:9" ht="16">
+    <row r="32" spans="1:13" ht="16">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -3614,8 +4344,20 @@
       <c r="I32" s="2">
         <v>0.83</v>
       </c>
+      <c r="J32" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0.82</v>
+      </c>
     </row>
-    <row r="33" spans="1:9" ht="16">
+    <row r="33" spans="1:13" ht="16">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -3643,8 +4385,20 @@
       <c r="I33" s="2">
         <v>0.7</v>
       </c>
+      <c r="J33" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0.71</v>
+      </c>
     </row>
-    <row r="34" spans="1:9" ht="16">
+    <row r="34" spans="1:13" ht="16">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -3672,8 +4426,20 @@
       <c r="I34" s="2">
         <v>0.44</v>
       </c>
+      <c r="J34" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0.71</v>
+      </c>
     </row>
-    <row r="35" spans="1:9" ht="16">
+    <row r="35" spans="1:13" ht="16">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -3701,8 +4467,20 @@
       <c r="I35" s="2">
         <v>0.68</v>
       </c>
+      <c r="J35" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="K35" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L35" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0.68</v>
+      </c>
     </row>
-    <row r="36" spans="1:9" ht="16">
+    <row r="36" spans="1:13" ht="16">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -3730,8 +4508,20 @@
       <c r="I36" s="2">
         <v>0.61</v>
       </c>
+      <c r="J36" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0.81</v>
+      </c>
     </row>
-    <row r="37" spans="1:9" ht="16">
+    <row r="37" spans="1:13" ht="16">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -3759,17 +4549,29 @@
       <c r="I37" s="2">
         <v>0.48</v>
       </c>
+      <c r="J37" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0.74</v>
+      </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B39">
         <f>AVERAGE(B2:B37)</f>
         <v>0.1669444444444444</v>
       </c>
       <c r="C39">
-        <f t="shared" ref="C39:I39" si="0">AVERAGE(C2:C37)</f>
+        <f t="shared" ref="C39:M39" si="0">AVERAGE(C2:C37)</f>
         <v>0.13333333333333336</v>
       </c>
       <c r="D39">
@@ -3795,6 +4597,22 @@
       <c r="I39">
         <f t="shared" si="0"/>
         <v>0.5955555555555555</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>0.6927777777777776</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="0"/>
+        <v>0.24888888888888891</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="0"/>
+        <v>4.6111111111111124E-2</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="0"/>
+        <v>0.78444444444444439</v>
       </c>
     </row>
   </sheetData>

--- a/Calculations.xlsx
+++ b/Calculations.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Play</t>
   </si>
@@ -62,12 +62,18 @@
   <si>
     <t>KMeans word</t>
   </si>
+  <si>
+    <t>Speakers</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -85,6 +91,30 @@
       <sz val="13"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,15 +134,56 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="21">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1895,11 +1966,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2055759448"/>
-        <c:axId val="2055762472"/>
+        <c:axId val="2097051352"/>
+        <c:axId val="2097054328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2055759448"/>
+        <c:axId val="2097051352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1909,7 +1980,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2055762472"/>
+        <c:crossAx val="2097054328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1917,7 +1988,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2055762472"/>
+        <c:axId val="2097054328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1958,7 +2029,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2055759448"/>
+        <c:crossAx val="2097051352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2194,11 +2265,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2055812088"/>
-        <c:axId val="2055815064"/>
+        <c:axId val="2096496440"/>
+        <c:axId val="2096493448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2055812088"/>
+        <c:axId val="2096496440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2208,7 +2279,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2055815064"/>
+        <c:crossAx val="2096493448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2216,7 +2287,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2055815064"/>
+        <c:axId val="2096493448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2257,7 +2328,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2055812088"/>
+        <c:crossAx val="2096496440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2493,11 +2564,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2053153672"/>
-        <c:axId val="2053156648"/>
+        <c:axId val="2096449176"/>
+        <c:axId val="2096446184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2053153672"/>
+        <c:axId val="2096449176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2507,7 +2578,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2053156648"/>
+        <c:crossAx val="2096446184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2515,7 +2586,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2053156648"/>
+        <c:axId val="2096446184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2556,7 +2627,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2053153672"/>
+        <c:crossAx val="2096449176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3024,25 +3095,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:AE150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="7.83203125" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" customWidth="1"/>
-    <col min="13" max="13" width="8.33203125" customWidth="1"/>
+    <col min="2" max="3" width="5.1640625" customWidth="1"/>
+    <col min="4" max="4" width="5" customWidth="1"/>
+    <col min="5" max="6" width="5.33203125" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" customWidth="1"/>
+    <col min="9" max="9" width="5.1640625" customWidth="1"/>
+    <col min="10" max="10" width="5.33203125" customWidth="1"/>
+    <col min="11" max="11" width="5.5" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" customWidth="1"/>
+    <col min="13" max="13" width="5.5" customWidth="1"/>
+    <col min="14" max="14" width="5.6640625" customWidth="1"/>
+    <col min="15" max="15" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5" customWidth="1"/>
+    <col min="17" max="17" width="5.33203125" customWidth="1"/>
+    <col min="18" max="18" width="5.1640625" customWidth="1"/>
+    <col min="19" max="20" width="4.83203125" customWidth="1"/>
+    <col min="21" max="22" width="5.1640625" customWidth="1"/>
+    <col min="23" max="23" width="5" customWidth="1"/>
+    <col min="24" max="24" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5" customWidth="1"/>
+    <col min="26" max="26" width="4.83203125" customWidth="1"/>
+    <col min="27" max="27" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5" customWidth="1"/>
+    <col min="29" max="29" width="5.1640625" customWidth="1"/>
+    <col min="30" max="30" width="8.33203125" customWidth="1"/>
+    <col min="31" max="31" width="10" customWidth="1"/>
+    <col min="32" max="32" width="7.33203125" customWidth="1"/>
+    <col min="33" max="33" width="5" customWidth="1"/>
+    <col min="34" max="34" width="5.6640625" customWidth="1"/>
+    <col min="35" max="36" width="4.83203125" customWidth="1"/>
+    <col min="37" max="37" width="5" customWidth="1"/>
+    <col min="38" max="38" width="5.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16">
@@ -4357,7 +4450,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="16">
+    <row r="33" spans="1:31" ht="16">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -4398,7 +4491,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="16">
+    <row r="34" spans="1:31" ht="16">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -4439,7 +4532,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="16">
+    <row r="35" spans="1:31" ht="16">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -4480,7 +4573,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="16">
+    <row r="36" spans="1:31" ht="16">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -4521,7 +4614,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="16">
+    <row r="37" spans="1:31" ht="16">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -4562,7 +4655,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:31">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -4615,8 +4708,2309 @@
         <v>0.78444444444444439</v>
       </c>
     </row>
+    <row r="44" spans="1:31">
+      <c r="A44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE44" s="3"/>
+    </row>
+    <row r="45" spans="1:31">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>0.06</v>
+      </c>
+      <c r="C45">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0.03</v>
+      </c>
+      <c r="F45">
+        <v>0.05</v>
+      </c>
+      <c r="G45">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H45">
+        <v>0.04</v>
+      </c>
+      <c r="I45">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J45">
+        <v>0.09</v>
+      </c>
+      <c r="K45">
+        <v>0.05</v>
+      </c>
+      <c r="L45">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M45">
+        <v>0.1</v>
+      </c>
+      <c r="N45">
+        <v>0.06</v>
+      </c>
+      <c r="AD45">
+        <f>AVERAGE(B45:N45)</f>
+        <v>5.8461538461538461E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31">
+      <c r="A48">
+        <f>A45+1</f>
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>0.01</v>
+      </c>
+      <c r="C48">
+        <v>0.04</v>
+      </c>
+      <c r="D48">
+        <v>0.03</v>
+      </c>
+      <c r="E48">
+        <v>0.04</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0.02</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0.03</v>
+      </c>
+      <c r="L48">
+        <v>0.02</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0.01</v>
+      </c>
+      <c r="P48">
+        <v>0.02</v>
+      </c>
+      <c r="Q48">
+        <v>0.05</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0.03</v>
+      </c>
+      <c r="T48">
+        <v>0.03</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0.05</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0.02</v>
+      </c>
+      <c r="Z48">
+        <v>0.06</v>
+      </c>
+      <c r="AD48">
+        <f>AVERAGE(B48:Z48)</f>
+        <v>1.84E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30">
+      <c r="A51">
+        <f>A48+1</f>
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>0.06</v>
+      </c>
+      <c r="C51">
+        <v>0.05</v>
+      </c>
+      <c r="D51">
+        <v>0.06</v>
+      </c>
+      <c r="E51">
+        <v>0.05</v>
+      </c>
+      <c r="F51">
+        <v>0.05</v>
+      </c>
+      <c r="G51">
+        <v>0.04</v>
+      </c>
+      <c r="H51">
+        <v>0.11</v>
+      </c>
+      <c r="I51">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J51">
+        <v>0.04</v>
+      </c>
+      <c r="K51">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L51">
+        <v>0.06</v>
+      </c>
+      <c r="M51">
+        <v>0.04</v>
+      </c>
+      <c r="N51">
+        <v>0.09</v>
+      </c>
+      <c r="O51">
+        <v>0.16</v>
+      </c>
+      <c r="AD51">
+        <f>AVERAGE(B51:O51)</f>
+        <v>6.7857142857142852E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30">
+      <c r="A54">
+        <f>A51+1</f>
+        <v>3</v>
+      </c>
+      <c r="B54">
+        <v>0.02</v>
+      </c>
+      <c r="C54">
+        <v>0.13</v>
+      </c>
+      <c r="D54">
+        <v>0.08</v>
+      </c>
+      <c r="E54">
+        <v>0.06</v>
+      </c>
+      <c r="F54">
+        <v>0.06</v>
+      </c>
+      <c r="G54">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H54">
+        <v>0.04</v>
+      </c>
+      <c r="I54">
+        <v>0.04</v>
+      </c>
+      <c r="J54">
+        <v>0.05</v>
+      </c>
+      <c r="K54">
+        <v>0.08</v>
+      </c>
+      <c r="L54">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M54">
+        <v>0.04</v>
+      </c>
+      <c r="N54">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O54">
+        <v>0.06</v>
+      </c>
+      <c r="AD54">
+        <f>AVERAGE(B54:O54)</f>
+        <v>6.7142857142857143E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30">
+      <c r="A57">
+        <f>A54+1</f>
+        <v>4</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0.02</v>
+      </c>
+      <c r="D57">
+        <v>0.03</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0.01</v>
+      </c>
+      <c r="G57">
+        <v>0.03</v>
+      </c>
+      <c r="H57">
+        <v>0.02</v>
+      </c>
+      <c r="I57">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J57">
+        <v>0.02</v>
+      </c>
+      <c r="K57">
+        <v>0.05</v>
+      </c>
+      <c r="L57">
+        <v>0.02</v>
+      </c>
+      <c r="M57">
+        <v>0.06</v>
+      </c>
+      <c r="N57">
+        <v>0.03</v>
+      </c>
+      <c r="O57">
+        <v>0.02</v>
+      </c>
+      <c r="P57">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q57">
+        <v>0.02</v>
+      </c>
+      <c r="R57">
+        <v>0.03</v>
+      </c>
+      <c r="S57">
+        <v>0.05</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0.06</v>
+      </c>
+      <c r="AD57">
+        <f>AVERAGE(B57:V57)</f>
+        <v>2.9047619047619051E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30">
+      <c r="A60">
+        <f>A57+1</f>
+        <v>5</v>
+      </c>
+      <c r="B60">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C60">
+        <v>0.04</v>
+      </c>
+      <c r="D60">
+        <v>0.02</v>
+      </c>
+      <c r="E60">
+        <v>0.06</v>
+      </c>
+      <c r="F60">
+        <v>0.04</v>
+      </c>
+      <c r="G60">
+        <v>0.03</v>
+      </c>
+      <c r="H60">
+        <v>0.03</v>
+      </c>
+      <c r="I60">
+        <v>0.03</v>
+      </c>
+      <c r="J60">
+        <v>0.04</v>
+      </c>
+      <c r="K60">
+        <v>0.08</v>
+      </c>
+      <c r="L60">
+        <v>0.04</v>
+      </c>
+      <c r="M60">
+        <v>0.09</v>
+      </c>
+      <c r="N60">
+        <v>0.05</v>
+      </c>
+      <c r="O60">
+        <v>0.02</v>
+      </c>
+      <c r="P60">
+        <v>0.01</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0.1</v>
+      </c>
+      <c r="S60">
+        <v>0.13</v>
+      </c>
+      <c r="AD60">
+        <f>AVERAGE(B60:S60)</f>
+        <v>4.8888888888888898E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30">
+      <c r="A63">
+        <f>A60+1</f>
+        <v>6</v>
+      </c>
+      <c r="B63">
+        <v>0.02</v>
+      </c>
+      <c r="C63">
+        <v>0.11</v>
+      </c>
+      <c r="D63">
+        <v>0.02</v>
+      </c>
+      <c r="E63">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0.02</v>
+      </c>
+      <c r="H63">
+        <v>0.08</v>
+      </c>
+      <c r="I63">
+        <v>0.03</v>
+      </c>
+      <c r="J63">
+        <v>0.03</v>
+      </c>
+      <c r="K63">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L63">
+        <v>0.03</v>
+      </c>
+      <c r="M63">
+        <v>0.03</v>
+      </c>
+      <c r="N63">
+        <v>0.03</v>
+      </c>
+      <c r="O63">
+        <v>0.15</v>
+      </c>
+      <c r="P63">
+        <v>0.04</v>
+      </c>
+      <c r="Q63">
+        <v>0.02</v>
+      </c>
+      <c r="R63">
+        <v>0.04</v>
+      </c>
+      <c r="S63">
+        <v>0.06</v>
+      </c>
+      <c r="AD63">
+        <f>AVERAGE(B63:S63)</f>
+        <v>4.7222222222222228E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30">
+      <c r="A66">
+        <f>A63+1</f>
+        <v>7</v>
+      </c>
+      <c r="B66">
+        <v>0.08</v>
+      </c>
+      <c r="C66">
+        <v>0.15</v>
+      </c>
+      <c r="D66">
+        <v>0.02</v>
+      </c>
+      <c r="E66">
+        <v>0.05</v>
+      </c>
+      <c r="F66">
+        <v>0.03</v>
+      </c>
+      <c r="G66">
+        <v>0.11</v>
+      </c>
+      <c r="H66">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I66">
+        <v>0.03</v>
+      </c>
+      <c r="J66">
+        <v>0.02</v>
+      </c>
+      <c r="K66">
+        <v>0.06</v>
+      </c>
+      <c r="L66">
+        <v>0.03</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0.05</v>
+      </c>
+      <c r="O66">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P66">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q66">
+        <v>0.05</v>
+      </c>
+      <c r="R66">
+        <v>0.03</v>
+      </c>
+      <c r="S66">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AD66">
+        <f>AVERAGE(B66:S66)</f>
+        <v>5.5000000000000021E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30">
+      <c r="A69">
+        <f>A66+1</f>
+        <v>8</v>
+      </c>
+      <c r="B69">
+        <v>0.03</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0.03</v>
+      </c>
+      <c r="E69">
+        <v>0.04</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0.02</v>
+      </c>
+      <c r="H69">
+        <v>0.03</v>
+      </c>
+      <c r="I69">
+        <v>0.03</v>
+      </c>
+      <c r="J69">
+        <v>0.03</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0.04</v>
+      </c>
+      <c r="M69">
+        <v>0.04</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0.09</v>
+      </c>
+      <c r="S69">
+        <v>0.05</v>
+      </c>
+      <c r="T69">
+        <v>0.04</v>
+      </c>
+      <c r="U69">
+        <v>0.03</v>
+      </c>
+      <c r="V69">
+        <v>0.02</v>
+      </c>
+      <c r="W69">
+        <v>0.01</v>
+      </c>
+      <c r="X69">
+        <v>0.04</v>
+      </c>
+      <c r="Y69">
+        <v>0.02</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>0.05</v>
+      </c>
+      <c r="AB69">
+        <v>0</v>
+      </c>
+      <c r="AD69">
+        <f>AVERAGE(B69:AB69)</f>
+        <v>2.3703703703703709E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30">
+      <c r="A72">
+        <f>A69+1</f>
+        <v>9</v>
+      </c>
+      <c r="B72">
+        <v>0.09</v>
+      </c>
+      <c r="C72">
+        <v>0.11</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0.03</v>
+      </c>
+      <c r="I72">
+        <v>0.04</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0.05</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0.02</v>
+      </c>
+      <c r="P72">
+        <v>0.04</v>
+      </c>
+      <c r="Q72">
+        <v>0.02</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0.03</v>
+      </c>
+      <c r="T72">
+        <v>0.05</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>0.1</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0.04</v>
+      </c>
+      <c r="Y72">
+        <v>0.04</v>
+      </c>
+      <c r="Z72">
+        <v>0.02</v>
+      </c>
+      <c r="AD72">
+        <f>AVERAGE(B72:Z72)</f>
+        <v>3.0000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30">
+      <c r="A75">
+        <f>A72+1</f>
+        <v>10</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0.06</v>
+      </c>
+      <c r="D75">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E75">
+        <v>0.02</v>
+      </c>
+      <c r="F75">
+        <v>0.05</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0.02</v>
+      </c>
+      <c r="I75">
+        <v>0.06</v>
+      </c>
+      <c r="J75">
+        <v>0.02</v>
+      </c>
+      <c r="K75">
+        <v>0.04</v>
+      </c>
+      <c r="L75">
+        <v>0.01</v>
+      </c>
+      <c r="M75">
+        <v>0.04</v>
+      </c>
+      <c r="N75">
+        <v>0.03</v>
+      </c>
+      <c r="O75">
+        <v>0.05</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0.03</v>
+      </c>
+      <c r="R75">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S75">
+        <v>0.04</v>
+      </c>
+      <c r="T75">
+        <v>0.05</v>
+      </c>
+      <c r="U75">
+        <v>0.03</v>
+      </c>
+      <c r="V75">
+        <v>0.05</v>
+      </c>
+      <c r="AD75">
+        <f>AVERAGE(B75:V75)</f>
+        <v>3.5238095238095249E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30">
+      <c r="A78">
+        <f>A75+1</f>
+        <v>11</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0.02</v>
+      </c>
+      <c r="E78">
+        <v>0.02</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0.08</v>
+      </c>
+      <c r="H78">
+        <v>0.06</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0.04</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0.09</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0.02</v>
+      </c>
+      <c r="R78">
+        <v>0.02</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0.03</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0.04</v>
+      </c>
+      <c r="W78">
+        <v>0.03</v>
+      </c>
+      <c r="X78">
+        <v>0.02</v>
+      </c>
+      <c r="Y78">
+        <v>0.05</v>
+      </c>
+      <c r="Z78">
+        <v>0.02</v>
+      </c>
+      <c r="AA78">
+        <v>0.02</v>
+      </c>
+      <c r="AD78">
+        <f>AVERAGE(B78:AA78)</f>
+        <v>2.1538461538461541E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30">
+      <c r="A81">
+        <f>A78+1</f>
+        <v>12</v>
+      </c>
+      <c r="B81">
+        <v>0.02</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0.06</v>
+      </c>
+      <c r="E81">
+        <v>0.03</v>
+      </c>
+      <c r="F81">
+        <v>0.08</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0.03</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0.03</v>
+      </c>
+      <c r="K81">
+        <v>0.03</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0.06</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0.03</v>
+      </c>
+      <c r="Q81">
+        <v>0.04</v>
+      </c>
+      <c r="R81">
+        <v>0.03</v>
+      </c>
+      <c r="S81">
+        <v>0.02</v>
+      </c>
+      <c r="T81">
+        <v>0.02</v>
+      </c>
+      <c r="AD81">
+        <f>AVERAGE(B81:T81)</f>
+        <v>2.5263157894736842E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30">
+      <c r="A84">
+        <f>A81+1</f>
+        <v>13</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0.02</v>
+      </c>
+      <c r="D84">
+        <v>0.04</v>
+      </c>
+      <c r="E84">
+        <v>0.04</v>
+      </c>
+      <c r="F84">
+        <v>0.04</v>
+      </c>
+      <c r="G84">
+        <v>0.02</v>
+      </c>
+      <c r="H84">
+        <v>0.04</v>
+      </c>
+      <c r="I84">
+        <v>0.16</v>
+      </c>
+      <c r="J84">
+        <v>0.03</v>
+      </c>
+      <c r="K84">
+        <v>0.03</v>
+      </c>
+      <c r="L84">
+        <v>0.06</v>
+      </c>
+      <c r="M84">
+        <v>0.03</v>
+      </c>
+      <c r="N84">
+        <v>0.06</v>
+      </c>
+      <c r="O84">
+        <v>0.06</v>
+      </c>
+      <c r="P84">
+        <v>0.03</v>
+      </c>
+      <c r="Q84">
+        <v>0.04</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>0.06</v>
+      </c>
+      <c r="T84">
+        <v>0.05</v>
+      </c>
+      <c r="U84">
+        <v>0.02</v>
+      </c>
+      <c r="V84">
+        <v>0.09</v>
+      </c>
+      <c r="AD84">
+        <f>AVERAGE(B84:V84)</f>
+        <v>4.3809523809523819E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30">
+      <c r="A87">
+        <f>A84+1</f>
+        <v>14</v>
+      </c>
+      <c r="B87">
+        <v>0.04</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0.06</v>
+      </c>
+      <c r="E87">
+        <v>0.05</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0.02</v>
+      </c>
+      <c r="I87">
+        <v>0.05</v>
+      </c>
+      <c r="J87">
+        <v>0.05</v>
+      </c>
+      <c r="K87">
+        <v>0.05</v>
+      </c>
+      <c r="L87">
+        <v>0.1</v>
+      </c>
+      <c r="M87">
+        <v>0.17</v>
+      </c>
+      <c r="N87">
+        <v>0.06</v>
+      </c>
+      <c r="O87">
+        <v>0.06</v>
+      </c>
+      <c r="P87">
+        <v>0.03</v>
+      </c>
+      <c r="Q87">
+        <v>0.03</v>
+      </c>
+      <c r="R87">
+        <v>0.04</v>
+      </c>
+      <c r="AD87">
+        <f>AVERAGE(B87:R87)</f>
+        <v>4.7647058823529431E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30">
+      <c r="A90">
+        <f>A87+1</f>
+        <v>15</v>
+      </c>
+      <c r="B90">
+        <v>0.05</v>
+      </c>
+      <c r="C90">
+        <v>0.06</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0.03</v>
+      </c>
+      <c r="F90">
+        <v>0.02</v>
+      </c>
+      <c r="G90">
+        <v>0.03</v>
+      </c>
+      <c r="H90">
+        <v>0.04</v>
+      </c>
+      <c r="I90">
+        <v>0.03</v>
+      </c>
+      <c r="J90">
+        <v>0.12</v>
+      </c>
+      <c r="K90">
+        <v>0.02</v>
+      </c>
+      <c r="L90">
+        <v>0.03</v>
+      </c>
+      <c r="M90">
+        <v>0.04</v>
+      </c>
+      <c r="N90">
+        <v>0.03</v>
+      </c>
+      <c r="O90">
+        <v>0.03</v>
+      </c>
+      <c r="P90">
+        <v>0.04</v>
+      </c>
+      <c r="Q90">
+        <v>0.02</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>0.02</v>
+      </c>
+      <c r="T90">
+        <v>0.06</v>
+      </c>
+      <c r="U90">
+        <v>0.05</v>
+      </c>
+      <c r="V90">
+        <v>0.05</v>
+      </c>
+      <c r="AD90">
+        <f>AVERAGE(B90:V90)</f>
+        <v>3.6666666666666681E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30">
+      <c r="A93">
+        <f>A90+1</f>
+        <v>16</v>
+      </c>
+      <c r="B93">
+        <v>0.06</v>
+      </c>
+      <c r="C93">
+        <v>0.05</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0.06</v>
+      </c>
+      <c r="F93">
+        <v>0.04</v>
+      </c>
+      <c r="G93">
+        <v>0.09</v>
+      </c>
+      <c r="H93">
+        <v>0.08</v>
+      </c>
+      <c r="I93">
+        <v>0.08</v>
+      </c>
+      <c r="J93">
+        <v>0.04</v>
+      </c>
+      <c r="K93">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L93">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M93">
+        <v>0.03</v>
+      </c>
+      <c r="N93">
+        <v>0.08</v>
+      </c>
+      <c r="O93">
+        <v>0.05</v>
+      </c>
+      <c r="P93">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q93">
+        <v>0.05</v>
+      </c>
+      <c r="AD93">
+        <f>AVERAGE(B93:Q93)</f>
+        <v>5.7500000000000009E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30">
+      <c r="A96">
+        <f>A93+1</f>
+        <v>17</v>
+      </c>
+      <c r="B96">
+        <v>0.06</v>
+      </c>
+      <c r="C96">
+        <v>0.08</v>
+      </c>
+      <c r="D96">
+        <v>0.02</v>
+      </c>
+      <c r="E96">
+        <v>0.06</v>
+      </c>
+      <c r="F96">
+        <v>0.03</v>
+      </c>
+      <c r="G96">
+        <v>0.06</v>
+      </c>
+      <c r="H96">
+        <v>0.09</v>
+      </c>
+      <c r="I96">
+        <v>0.05</v>
+      </c>
+      <c r="J96">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K96">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L96">
+        <v>0.05</v>
+      </c>
+      <c r="M96">
+        <v>0.06</v>
+      </c>
+      <c r="N96">
+        <v>0.06</v>
+      </c>
+      <c r="O96">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P96">
+        <v>0.06</v>
+      </c>
+      <c r="Q96">
+        <v>0.06</v>
+      </c>
+      <c r="AD96">
+        <f>AVERAGE(B96:Q96)</f>
+        <v>5.9375000000000025E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:30">
+      <c r="A99">
+        <f>A96+1</f>
+        <v>18</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0.03</v>
+      </c>
+      <c r="D99">
+        <v>0.04</v>
+      </c>
+      <c r="E99">
+        <v>0.15</v>
+      </c>
+      <c r="F99">
+        <v>0.09</v>
+      </c>
+      <c r="G99">
+        <v>0.02</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0.05</v>
+      </c>
+      <c r="J99">
+        <v>0.09</v>
+      </c>
+      <c r="K99">
+        <v>0.04</v>
+      </c>
+      <c r="L99">
+        <v>0.03</v>
+      </c>
+      <c r="M99">
+        <v>0.03</v>
+      </c>
+      <c r="N99">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0.08</v>
+      </c>
+      <c r="AD99">
+        <f>AVERAGE(B99:Q99)</f>
+        <v>5.2666666666666667E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:30">
+      <c r="A102">
+        <f>A99+1</f>
+        <v>19</v>
+      </c>
+      <c r="B102">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C102">
+        <v>0.16</v>
+      </c>
+      <c r="D102">
+        <v>0.03</v>
+      </c>
+      <c r="E102">
+        <v>0.09</v>
+      </c>
+      <c r="F102">
+        <v>0.12</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0.05</v>
+      </c>
+      <c r="I102">
+        <v>0.11</v>
+      </c>
+      <c r="J102">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K102">
+        <v>0.05</v>
+      </c>
+      <c r="L102">
+        <v>0.05</v>
+      </c>
+      <c r="M102">
+        <v>0.02</v>
+      </c>
+      <c r="N102">
+        <v>0.05</v>
+      </c>
+      <c r="O102">
+        <v>0.05</v>
+      </c>
+      <c r="AD102">
+        <f>AVERAGE(B102:O102)</f>
+        <v>6.5714285714285725E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:30">
+      <c r="A105">
+        <f>A102+1</f>
+        <v>20</v>
+      </c>
+      <c r="B105">
+        <v>0.06</v>
+      </c>
+      <c r="C105">
+        <v>0.04</v>
+      </c>
+      <c r="D105">
+        <v>0.05</v>
+      </c>
+      <c r="E105">
+        <v>0.04</v>
+      </c>
+      <c r="F105">
+        <v>0.05</v>
+      </c>
+      <c r="G105">
+        <v>0.03</v>
+      </c>
+      <c r="H105">
+        <v>0.06</v>
+      </c>
+      <c r="I105">
+        <v>0.04</v>
+      </c>
+      <c r="J105">
+        <v>0.04</v>
+      </c>
+      <c r="K105">
+        <v>0.06</v>
+      </c>
+      <c r="L105">
+        <v>0.08</v>
+      </c>
+      <c r="M105">
+        <v>0.05</v>
+      </c>
+      <c r="N105">
+        <v>0.05</v>
+      </c>
+      <c r="O105">
+        <v>0.04</v>
+      </c>
+      <c r="P105">
+        <v>0.06</v>
+      </c>
+      <c r="Q105">
+        <v>0.06</v>
+      </c>
+      <c r="R105">
+        <v>0.05</v>
+      </c>
+      <c r="AD105">
+        <f>AVERAGE(B105:R105)</f>
+        <v>5.0588235294117656E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:30">
+      <c r="A108">
+        <f>A105+1</f>
+        <v>21</v>
+      </c>
+      <c r="B108">
+        <v>0.05</v>
+      </c>
+      <c r="C108">
+        <v>0.04</v>
+      </c>
+      <c r="D108">
+        <v>0.05</v>
+      </c>
+      <c r="E108">
+        <v>0.06</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H108">
+        <v>0.03</v>
+      </c>
+      <c r="I108">
+        <v>0.04</v>
+      </c>
+      <c r="J108">
+        <v>0.04</v>
+      </c>
+      <c r="K108">
+        <v>0.01</v>
+      </c>
+      <c r="L108">
+        <v>0.08</v>
+      </c>
+      <c r="M108">
+        <v>0.05</v>
+      </c>
+      <c r="N108">
+        <v>0.09</v>
+      </c>
+      <c r="O108">
+        <v>0.04</v>
+      </c>
+      <c r="P108">
+        <v>0.05</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+      <c r="R108">
+        <v>0.08</v>
+      </c>
+      <c r="AD108">
+        <f>AVERAGE(B108:R108)</f>
+        <v>4.5882352941176471E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:30">
+      <c r="A111">
+        <f>A108+1</f>
+        <v>22</v>
+      </c>
+      <c r="B111">
+        <v>0.06</v>
+      </c>
+      <c r="C111">
+        <v>0.12</v>
+      </c>
+      <c r="D111">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E111">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F111">
+        <v>0.04</v>
+      </c>
+      <c r="G111">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H111">
+        <v>0.06</v>
+      </c>
+      <c r="I111">
+        <v>0.04</v>
+      </c>
+      <c r="J111">
+        <v>0.04</v>
+      </c>
+      <c r="K111">
+        <v>0.08</v>
+      </c>
+      <c r="L111">
+        <v>0.06</v>
+      </c>
+      <c r="M111">
+        <v>0.03</v>
+      </c>
+      <c r="N111">
+        <v>0.08</v>
+      </c>
+      <c r="O111">
+        <v>0.06</v>
+      </c>
+      <c r="P111">
+        <v>0.08</v>
+      </c>
+      <c r="Q111">
+        <v>0.05</v>
+      </c>
+      <c r="R111">
+        <v>0.06</v>
+      </c>
+      <c r="S111">
+        <v>0.04</v>
+      </c>
+      <c r="T111">
+        <v>0.06</v>
+      </c>
+      <c r="AD111">
+        <f>AVERAGE(B111:T111)</f>
+        <v>6.1578947368421046E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:30">
+      <c r="A114">
+        <f>A111+1</f>
+        <v>23</v>
+      </c>
+      <c r="B114">
+        <v>0.04</v>
+      </c>
+      <c r="C114">
+        <v>0.04</v>
+      </c>
+      <c r="D114">
+        <v>0.06</v>
+      </c>
+      <c r="E114">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F114">
+        <v>0.1</v>
+      </c>
+      <c r="G114">
+        <v>0.04</v>
+      </c>
+      <c r="H114">
+        <v>0.04</v>
+      </c>
+      <c r="I114">
+        <v>0.09</v>
+      </c>
+      <c r="J114">
+        <v>0.03</v>
+      </c>
+      <c r="K114">
+        <v>0.02</v>
+      </c>
+      <c r="L114">
+        <v>0.05</v>
+      </c>
+      <c r="M114">
+        <v>0.04</v>
+      </c>
+      <c r="N114">
+        <v>0.05</v>
+      </c>
+      <c r="O114">
+        <v>0.09</v>
+      </c>
+      <c r="P114">
+        <v>0.06</v>
+      </c>
+      <c r="AD114">
+        <f>AVERAGE(B114:P114)</f>
+        <v>5.4666666666666669E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:30">
+      <c r="A117">
+        <f>A114+1</f>
+        <v>24</v>
+      </c>
+      <c r="B117">
+        <v>0.04</v>
+      </c>
+      <c r="C117">
+        <v>0.06</v>
+      </c>
+      <c r="D117">
+        <v>0.04</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0.02</v>
+      </c>
+      <c r="H117">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0.04</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0.06</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0.02</v>
+      </c>
+      <c r="O117">
+        <v>0.11</v>
+      </c>
+      <c r="P117">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q117">
+        <v>0.03</v>
+      </c>
+      <c r="AD117">
+        <f>AVERAGE(B117:Q117)</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:30">
+      <c r="A120">
+        <f>A117+1</f>
+        <v>25</v>
+      </c>
+      <c r="B120">
+        <v>0.03</v>
+      </c>
+      <c r="C120">
+        <v>0.02</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0.02</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0.05</v>
+      </c>
+      <c r="H120">
+        <v>0.05</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0.02</v>
+      </c>
+      <c r="L120">
+        <v>0.02</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O120">
+        <v>0.02</v>
+      </c>
+      <c r="P120">
+        <v>0.05</v>
+      </c>
+      <c r="Q120">
+        <v>0.02</v>
+      </c>
+      <c r="R120">
+        <v>0.05</v>
+      </c>
+      <c r="S120">
+        <v>0.03</v>
+      </c>
+      <c r="T120">
+        <v>0.01</v>
+      </c>
+      <c r="U120">
+        <v>0.06</v>
+      </c>
+      <c r="V120">
+        <v>0.02</v>
+      </c>
+      <c r="AD120">
+        <f>AVERAGE(B120:V120)</f>
+        <v>2.5714285714285717E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:30">
+      <c r="A123">
+        <f>A120+1</f>
+        <v>26</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>0.05</v>
+      </c>
+      <c r="D123">
+        <v>0.05</v>
+      </c>
+      <c r="E123">
+        <v>0.03</v>
+      </c>
+      <c r="F123">
+        <v>0.03</v>
+      </c>
+      <c r="G123">
+        <v>0.05</v>
+      </c>
+      <c r="H123">
+        <v>0.04</v>
+      </c>
+      <c r="I123">
+        <v>0.02</v>
+      </c>
+      <c r="J123">
+        <v>0.05</v>
+      </c>
+      <c r="K123">
+        <v>0.02</v>
+      </c>
+      <c r="L123">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M123">
+        <v>0.13</v>
+      </c>
+      <c r="N123">
+        <v>0.02</v>
+      </c>
+      <c r="O123">
+        <v>0.05</v>
+      </c>
+      <c r="P123">
+        <v>0.05</v>
+      </c>
+      <c r="Q123">
+        <v>0.1</v>
+      </c>
+      <c r="R123">
+        <v>0</v>
+      </c>
+      <c r="S123">
+        <v>0.19</v>
+      </c>
+      <c r="T123">
+        <v>0.05</v>
+      </c>
+      <c r="AD123">
+        <f>AVERAGE(B123:T123)</f>
+        <v>5.2631578947368432E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:30">
+      <c r="A126">
+        <f>A123+1</f>
+        <v>27</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>0.04</v>
+      </c>
+      <c r="D126">
+        <v>0.03</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0.03</v>
+      </c>
+      <c r="G126">
+        <v>0.05</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0.09</v>
+      </c>
+      <c r="J126">
+        <v>0.02</v>
+      </c>
+      <c r="K126">
+        <v>0.03</v>
+      </c>
+      <c r="L126">
+        <v>0.03</v>
+      </c>
+      <c r="M126">
+        <v>0.09</v>
+      </c>
+      <c r="N126">
+        <v>0.03</v>
+      </c>
+      <c r="O126">
+        <v>0.02</v>
+      </c>
+      <c r="P126">
+        <v>0.03</v>
+      </c>
+      <c r="Q126">
+        <v>0.04</v>
+      </c>
+      <c r="R126">
+        <v>0.04</v>
+      </c>
+      <c r="S126">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AD126">
+        <f>AVERAGE(B126:S126)</f>
+        <v>3.5555555555555562E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:30">
+      <c r="A129">
+        <f>A126+1</f>
+        <v>28</v>
+      </c>
+      <c r="B129">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C129">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D129">
+        <v>0.06</v>
+      </c>
+      <c r="E129">
+        <v>0.05</v>
+      </c>
+      <c r="F129">
+        <v>0.06</v>
+      </c>
+      <c r="G129">
+        <v>0.06</v>
+      </c>
+      <c r="H129">
+        <v>0.06</v>
+      </c>
+      <c r="I129">
+        <v>0.08</v>
+      </c>
+      <c r="J129">
+        <v>0.08</v>
+      </c>
+      <c r="K129">
+        <v>0.05</v>
+      </c>
+      <c r="L129">
+        <v>0.08</v>
+      </c>
+      <c r="M129">
+        <v>0.06</v>
+      </c>
+      <c r="N129">
+        <v>0.09</v>
+      </c>
+      <c r="AD129">
+        <f>AVERAGE(B129:N129)</f>
+        <v>6.6923076923076918E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:30">
+      <c r="A132">
+        <f>A129+1</f>
+        <v>29</v>
+      </c>
+      <c r="B132">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0.11</v>
+      </c>
+      <c r="E132">
+        <v>0.05</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0.09</v>
+      </c>
+      <c r="H132">
+        <v>0.03</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0.08</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M132">
+        <v>0.03</v>
+      </c>
+      <c r="N132">
+        <v>0.03</v>
+      </c>
+      <c r="O132">
+        <v>0.02</v>
+      </c>
+      <c r="P132">
+        <v>0.02</v>
+      </c>
+      <c r="Q132">
+        <v>0</v>
+      </c>
+      <c r="R132">
+        <v>0</v>
+      </c>
+      <c r="S132">
+        <v>0.02</v>
+      </c>
+      <c r="T132">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="U132">
+        <v>0</v>
+      </c>
+      <c r="V132">
+        <v>0</v>
+      </c>
+      <c r="W132">
+        <v>0.02</v>
+      </c>
+      <c r="AD132">
+        <f>AVERAGE(B132:W132)</f>
+        <v>3.2272727272727279E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:30">
+      <c r="A135">
+        <f>A132+1</f>
+        <v>30</v>
+      </c>
+      <c r="B135">
+        <v>0.06</v>
+      </c>
+      <c r="C135">
+        <v>0.06</v>
+      </c>
+      <c r="D135">
+        <v>0.04</v>
+      </c>
+      <c r="E135">
+        <v>0.06</v>
+      </c>
+      <c r="F135">
+        <v>0.11</v>
+      </c>
+      <c r="G135">
+        <v>0.03</v>
+      </c>
+      <c r="H135">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I135">
+        <v>0.05</v>
+      </c>
+      <c r="J135">
+        <v>0.06</v>
+      </c>
+      <c r="K135">
+        <v>0.05</v>
+      </c>
+      <c r="L135">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M135">
+        <v>0.12</v>
+      </c>
+      <c r="N135">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O135">
+        <v>0.05</v>
+      </c>
+      <c r="P135">
+        <v>0.13</v>
+      </c>
+      <c r="AD135">
+        <f>AVERAGE(B135:P135)</f>
+        <v>7.3333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:30">
+      <c r="A138">
+        <f>A135+1</f>
+        <v>31</v>
+      </c>
+      <c r="B138">
+        <v>0.02</v>
+      </c>
+      <c r="C138">
+        <v>0.03</v>
+      </c>
+      <c r="D138">
+        <v>0.05</v>
+      </c>
+      <c r="E138">
+        <v>0.04</v>
+      </c>
+      <c r="F138">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G138">
+        <v>0.08</v>
+      </c>
+      <c r="H138">
+        <v>0.06</v>
+      </c>
+      <c r="I138">
+        <v>0.04</v>
+      </c>
+      <c r="J138">
+        <v>0.02</v>
+      </c>
+      <c r="K138">
+        <v>0.04</v>
+      </c>
+      <c r="L138">
+        <v>0.03</v>
+      </c>
+      <c r="M138">
+        <v>0.06</v>
+      </c>
+      <c r="N138">
+        <v>0.02</v>
+      </c>
+      <c r="O138">
+        <v>0.05</v>
+      </c>
+      <c r="P138">
+        <v>0.09</v>
+      </c>
+      <c r="Q138">
+        <v>0.06</v>
+      </c>
+      <c r="R138">
+        <v>0.1</v>
+      </c>
+      <c r="AD138">
+        <f>AVERAGE(B138:R138)</f>
+        <v>5.0588235294117649E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:30">
+      <c r="A141">
+        <f>A138+1</f>
+        <v>32</v>
+      </c>
+      <c r="B141">
+        <v>0.04</v>
+      </c>
+      <c r="C141">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D141">
+        <v>0.08</v>
+      </c>
+      <c r="E141">
+        <v>0.1</v>
+      </c>
+      <c r="F141">
+        <v>0.05</v>
+      </c>
+      <c r="G141">
+        <v>0.04</v>
+      </c>
+      <c r="H141">
+        <v>0.08</v>
+      </c>
+      <c r="I141">
+        <v>0.04</v>
+      </c>
+      <c r="J141">
+        <v>0.05</v>
+      </c>
+      <c r="K141">
+        <v>0.01</v>
+      </c>
+      <c r="L141">
+        <v>0.05</v>
+      </c>
+      <c r="AD141">
+        <f>AVERAGE(B141:L141)</f>
+        <v>5.5454545454545465E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:30">
+      <c r="A144">
+        <f>A141+1</f>
+        <v>33</v>
+      </c>
+      <c r="B144">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C144">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D144">
+        <v>0.11</v>
+      </c>
+      <c r="E144">
+        <v>0.1</v>
+      </c>
+      <c r="F144">
+        <v>0.08</v>
+      </c>
+      <c r="G144">
+        <v>0.1</v>
+      </c>
+      <c r="H144">
+        <v>0.08</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0.04</v>
+      </c>
+      <c r="K144">
+        <v>0.09</v>
+      </c>
+      <c r="L144">
+        <v>0.11</v>
+      </c>
+      <c r="M144">
+        <v>0.1</v>
+      </c>
+      <c r="N144">
+        <v>0.02</v>
+      </c>
+      <c r="AD144">
+        <f>AVERAGE(B144:N144)</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="147" spans="1:30">
+      <c r="A147">
+        <f>A144+1</f>
+        <v>34</v>
+      </c>
+      <c r="B147">
+        <v>0.04</v>
+      </c>
+      <c r="C147">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0.05</v>
+      </c>
+      <c r="G147">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H147">
+        <v>0.04</v>
+      </c>
+      <c r="I147">
+        <v>0.05</v>
+      </c>
+      <c r="J147">
+        <v>0.02</v>
+      </c>
+      <c r="K147">
+        <v>0.03</v>
+      </c>
+      <c r="L147">
+        <v>0.05</v>
+      </c>
+      <c r="M147">
+        <v>0.04</v>
+      </c>
+      <c r="N147">
+        <v>0.04</v>
+      </c>
+      <c r="O147">
+        <v>0.04</v>
+      </c>
+      <c r="P147">
+        <v>0.06</v>
+      </c>
+      <c r="Q147">
+        <v>0.02</v>
+      </c>
+      <c r="R147">
+        <v>0.03</v>
+      </c>
+      <c r="AD147">
+        <f>AVERAGE(B147:R147)</f>
+        <v>3.8235294117647055E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:30">
+      <c r="A150">
+        <f t="shared" ref="A150" si="1">A147+1</f>
+        <v>35</v>
+      </c>
+      <c r="B150">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C150">
+        <v>0.13</v>
+      </c>
+      <c r="D150">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E150">
+        <v>0.06</v>
+      </c>
+      <c r="F150">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G150">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0.05</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0.03</v>
+      </c>
+      <c r="L150">
+        <v>0.08</v>
+      </c>
+      <c r="M150">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N150">
+        <v>0.12</v>
+      </c>
+      <c r="O150">
+        <v>0.01</v>
+      </c>
+      <c r="AD150">
+        <f>AVERAGE(B150:O150)</f>
+        <v>5.9285714285714282E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/Calculations.xlsx
+++ b/Calculations.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Play</t>
   </si>
@@ -68,12 +68,15 @@
   <si>
     <t>Average</t>
   </si>
+  <si>
+    <t>HMM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -116,6 +119,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -134,7 +144,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -156,14 +166,250 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="255">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -174,6 +420,123 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -184,6 +547,123 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2674,6 +3154,514 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Listener Prediction Performance by play</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Random Baseline</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AF$45:$AF$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0.0584615384615384</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0184</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0678571428571428</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0671428571428571</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.029047619047619</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0488888888888889</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0472222222222222</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.055</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0237037037037037</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0373025155481296</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0352380952380952</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0214814814814815</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0252631578947368</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0438095238095238</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0476470588235294</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0366666666666667</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0575</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.059375</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0526666666666667</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0657142857142857</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0505882352941176</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0458823529411765</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.061578947368421</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0546666666666667</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0257142857142857</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0526315789473684</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0355555555555556</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0669230769230769</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0322727272727273</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0733333333333333</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0505882352941176</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0554545454545455</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.038235294117647</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.0592857142857143</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>System</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AG$45:$AG$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0.245384615384615</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.148571428571429</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.148095238095238</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.193888888888889</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.131666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.152777777777778</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.173703703703704</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.128690244128841</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.134285714285714</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0962962962962963</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.123684210526316</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.201428571428571</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.127647058823529</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0738095238095238</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1225</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.231333333333333</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.258571428571429</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.206470588235294</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.123529411764706</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.155789473684211</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.138666666666667</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.20625</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.191904761904762</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.19578947368421</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.111176470588235</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.107727272727273</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.104</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.155882352941176</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.207272727272727</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.289166666666667</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.0870588235294118</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.192857142857143</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>System + Proximity Heuristic</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AH$45:$AH$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0.514166666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.508666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.533333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.505555555555556</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.429411764705882</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.527857142857143</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.466923076923077</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.488</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.462857142857143</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.523159340659341</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.460625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.439285714285714</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.356153846153846</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.502857142857143</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.4425</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.400714285714286</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.376923077</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.394285714285714</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.524166666666667</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.494615384615385</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.49375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.514545454545455</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.457272727272727</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.554</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.555</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.594166666666667</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.423333333333333</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.490909090909091</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.480909090909091</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.411111111111111</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.444615384615385</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2095224168"/>
+        <c:axId val="2098611064"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2095224168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2098611064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2098611064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>F1 Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2095224168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2765,6 +3753,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3095,10 +4113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE150"/>
+  <dimension ref="A1:AH152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="E42" workbookViewId="0">
+      <selection activeCell="AG43" sqref="AG43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3127,12 +4145,12 @@
     <col min="26" max="26" width="4.83203125" customWidth="1"/>
     <col min="27" max="27" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5" customWidth="1"/>
-    <col min="29" max="29" width="5.1640625" customWidth="1"/>
-    <col min="30" max="30" width="8.33203125" customWidth="1"/>
-    <col min="31" max="31" width="10" customWidth="1"/>
-    <col min="32" max="32" width="7.33203125" customWidth="1"/>
-    <col min="33" max="33" width="5" customWidth="1"/>
-    <col min="34" max="34" width="5.6640625" customWidth="1"/>
+    <col min="29" max="29" width="2.5" customWidth="1"/>
+    <col min="30" max="30" width="11.1640625" customWidth="1"/>
+    <col min="31" max="31" width="4.33203125" customWidth="1"/>
+    <col min="32" max="32" width="14.83203125" customWidth="1"/>
+    <col min="33" max="33" width="12.83203125" customWidth="1"/>
+    <col min="34" max="34" width="13.33203125" customWidth="1"/>
     <col min="35" max="36" width="4.83203125" customWidth="1"/>
     <col min="37" max="37" width="5" customWidth="1"/>
     <col min="38" max="38" width="5.33203125" customWidth="1"/>
@@ -4450,7 +5468,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="16">
+    <row r="33" spans="1:34" ht="16">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -4491,7 +5509,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="16">
+    <row r="34" spans="1:34" ht="16">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -4532,7 +5550,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="16">
+    <row r="35" spans="1:34" ht="16">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -4573,7 +5591,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="16">
+    <row r="36" spans="1:34" ht="16">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -4614,7 +5632,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="16">
+    <row r="37" spans="1:34" ht="16">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -4655,7 +5673,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:34">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -4708,7 +5726,7 @@
         <v>0.78444444444444439</v>
       </c>
     </row>
-    <row r="44" spans="1:31">
+    <row r="44" spans="1:34">
       <c r="A44" s="3" t="s">
         <v>0</v>
       </c>
@@ -4720,7 +5738,7 @@
       </c>
       <c r="AE44" s="3"/>
     </row>
-    <row r="45" spans="1:31">
+    <row r="45" spans="1:34">
       <c r="A45">
         <v>0</v>
       </c>
@@ -4767,8 +5785,122 @@
         <f>AVERAGE(B45:N45)</f>
         <v>5.8461538461538461E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:31">
+      <c r="AF45">
+        <v>5.8461538461538461E-2</v>
+      </c>
+      <c r="AG45">
+        <v>0.24538461538461537</v>
+      </c>
+      <c r="AH45">
+        <v>0.51416666666666666</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34">
+      <c r="B46">
+        <v>0.1</v>
+      </c>
+      <c r="C46">
+        <v>0.2</v>
+      </c>
+      <c r="D46">
+        <v>0.17</v>
+      </c>
+      <c r="E46">
+        <v>0.26</v>
+      </c>
+      <c r="F46">
+        <v>0.35</v>
+      </c>
+      <c r="G46">
+        <v>0.12</v>
+      </c>
+      <c r="H46">
+        <v>0.27</v>
+      </c>
+      <c r="I46">
+        <v>0.46</v>
+      </c>
+      <c r="J46">
+        <v>0.23</v>
+      </c>
+      <c r="K46">
+        <v>0.26</v>
+      </c>
+      <c r="L46">
+        <v>0.39</v>
+      </c>
+      <c r="M46">
+        <v>0.08</v>
+      </c>
+      <c r="N46">
+        <v>0.3</v>
+      </c>
+      <c r="AD46">
+        <f>AVERAGE(B46:N46)</f>
+        <v>0.24538461538461537</v>
+      </c>
+      <c r="AF46">
+        <v>1.84E-2</v>
+      </c>
+      <c r="AG46">
+        <v>0.12559999999999996</v>
+      </c>
+      <c r="AH46">
+        <v>0.50866666666666671</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34">
+      <c r="B47">
+        <v>0.3</v>
+      </c>
+      <c r="C47">
+        <v>0.39</v>
+      </c>
+      <c r="D47">
+        <v>0.76</v>
+      </c>
+      <c r="E47">
+        <v>0.46</v>
+      </c>
+      <c r="F47">
+        <v>0.43</v>
+      </c>
+      <c r="G47">
+        <v>0.36</v>
+      </c>
+      <c r="H47">
+        <v>0.91</v>
+      </c>
+      <c r="I47">
+        <v>0.45</v>
+      </c>
+      <c r="J47">
+        <v>0.59</v>
+      </c>
+      <c r="K47">
+        <v>0.47</v>
+      </c>
+      <c r="L47">
+        <v>0.53</v>
+      </c>
+      <c r="M47">
+        <v>0.52</v>
+      </c>
+      <c r="AD47">
+        <f>AVERAGE(B47:M47)</f>
+        <v>0.51416666666666666</v>
+      </c>
+      <c r="AF47">
+        <v>6.7857142857142852E-2</v>
+      </c>
+      <c r="AG47">
+        <v>0.23</v>
+      </c>
+      <c r="AH47">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34">
       <c r="A48">
         <f>A45+1</f>
         <v>1</v>
@@ -4852,8 +5984,167 @@
         <f>AVERAGE(B48:Z48)</f>
         <v>1.84E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:30">
+      <c r="AF48">
+        <v>6.7142857142857143E-2</v>
+      </c>
+      <c r="AG48">
+        <v>0.1485714285714286</v>
+      </c>
+      <c r="AH48">
+        <v>0.50555555555555565</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34">
+      <c r="B49">
+        <v>0.1</v>
+      </c>
+      <c r="C49">
+        <v>0.12</v>
+      </c>
+      <c r="D49">
+        <v>0.03</v>
+      </c>
+      <c r="E49">
+        <v>0.2</v>
+      </c>
+      <c r="F49">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G49">
+        <v>0.13</v>
+      </c>
+      <c r="H49">
+        <v>0.12</v>
+      </c>
+      <c r="I49">
+        <v>0.13</v>
+      </c>
+      <c r="J49">
+        <v>0.12</v>
+      </c>
+      <c r="K49">
+        <v>0.13</v>
+      </c>
+      <c r="L49">
+        <v>0.12</v>
+      </c>
+      <c r="M49">
+        <v>0.3</v>
+      </c>
+      <c r="N49">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O49">
+        <v>0.16</v>
+      </c>
+      <c r="P49">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q49">
+        <v>0.3</v>
+      </c>
+      <c r="R49">
+        <v>0.03</v>
+      </c>
+      <c r="S49">
+        <v>0.05</v>
+      </c>
+      <c r="T49">
+        <v>0.13</v>
+      </c>
+      <c r="U49">
+        <v>0.17</v>
+      </c>
+      <c r="V49">
+        <v>0.1</v>
+      </c>
+      <c r="W49">
+        <v>0.17</v>
+      </c>
+      <c r="X49">
+        <v>0.11</v>
+      </c>
+      <c r="Y49">
+        <v>0.08</v>
+      </c>
+      <c r="Z49">
+        <v>0.06</v>
+      </c>
+      <c r="AD49">
+        <f>AVERAGE(B49:Z49)</f>
+        <v>0.12559999999999996</v>
+      </c>
+      <c r="AF49">
+        <v>2.9047619047619051E-2</v>
+      </c>
+      <c r="AG49">
+        <v>0.14809523809523811</v>
+      </c>
+      <c r="AH49">
+        <v>0.42941176470588233</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34">
+      <c r="B50">
+        <v>0.37</v>
+      </c>
+      <c r="C50">
+        <v>0.49</v>
+      </c>
+      <c r="D50">
+        <v>0.4</v>
+      </c>
+      <c r="E50">
+        <v>0.53</v>
+      </c>
+      <c r="F50">
+        <v>0.46</v>
+      </c>
+      <c r="G50">
+        <v>0.39</v>
+      </c>
+      <c r="H50">
+        <v>0.42</v>
+      </c>
+      <c r="I50">
+        <v>0.59</v>
+      </c>
+      <c r="J50">
+        <v>0.45</v>
+      </c>
+      <c r="K50">
+        <v>0.7</v>
+      </c>
+      <c r="L50">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M50">
+        <v>0.53</v>
+      </c>
+      <c r="N50">
+        <v>0.47</v>
+      </c>
+      <c r="O50">
+        <v>0.65</v>
+      </c>
+      <c r="P50">
+        <v>0.61</v>
+      </c>
+      <c r="AD50">
+        <f>AVERAGE(B50:P50)</f>
+        <v>0.50866666666666671</v>
+      </c>
+      <c r="AF50">
+        <v>4.8888888888888898E-2</v>
+      </c>
+      <c r="AG50">
+        <v>0.19388888888888889</v>
+      </c>
+      <c r="AH50">
+        <v>0.52785714285714291</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34">
       <c r="A51">
         <f>A48+1</f>
         <v>2</v>
@@ -4904,8 +6195,125 @@
         <f>AVERAGE(B51:O51)</f>
         <v>6.7857142857142852E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:30">
+      <c r="AF51">
+        <v>4.7222222222222228E-2</v>
+      </c>
+      <c r="AG51">
+        <v>0.13166666666666668</v>
+      </c>
+      <c r="AH51">
+        <v>0.46692307692307689</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34">
+      <c r="B52">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C52">
+        <v>0.22</v>
+      </c>
+      <c r="D52">
+        <v>0.15</v>
+      </c>
+      <c r="E52">
+        <v>0.2</v>
+      </c>
+      <c r="F52">
+        <v>0.1</v>
+      </c>
+      <c r="G52">
+        <v>0.17</v>
+      </c>
+      <c r="H52">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I52">
+        <v>0.23</v>
+      </c>
+      <c r="J52">
+        <v>0.43</v>
+      </c>
+      <c r="K52">
+        <v>0.39</v>
+      </c>
+      <c r="L52">
+        <v>0.26</v>
+      </c>
+      <c r="M52">
+        <v>0.16</v>
+      </c>
+      <c r="N52">
+        <v>0.23</v>
+      </c>
+      <c r="O52">
+        <v>0.33</v>
+      </c>
+      <c r="AD52">
+        <f>AVERAGE(B52:O52)</f>
+        <v>0.23</v>
+      </c>
+      <c r="AF52">
+        <v>5.5000000000000021E-2</v>
+      </c>
+      <c r="AG52">
+        <v>0.15277777777777779</v>
+      </c>
+      <c r="AH52">
+        <v>0.48800000000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34">
+      <c r="B53">
+        <v>0.67</v>
+      </c>
+      <c r="C53">
+        <v>0.51</v>
+      </c>
+      <c r="D53">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E53">
+        <v>0.46</v>
+      </c>
+      <c r="F53">
+        <v>0.49</v>
+      </c>
+      <c r="G53">
+        <v>0.69</v>
+      </c>
+      <c r="H53">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I53">
+        <v>0.76</v>
+      </c>
+      <c r="J53">
+        <v>0.62</v>
+      </c>
+      <c r="K53">
+        <v>0.63</v>
+      </c>
+      <c r="L53">
+        <v>0.38</v>
+      </c>
+      <c r="M53">
+        <v>0.35</v>
+      </c>
+      <c r="AD53">
+        <f>AVERAGE(B53:M53)</f>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="AF53">
+        <v>2.3703703703703709E-2</v>
+      </c>
+      <c r="AG53">
+        <v>0.17370370370370369</v>
+      </c>
+      <c r="AH53">
+        <v>0.4628571428571428</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34">
       <c r="A54">
         <f>A51+1</f>
         <v>3</v>
@@ -4956,8 +6364,116 @@
         <f>AVERAGE(B54:O54)</f>
         <v>6.7142857142857143E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:30">
+      <c r="AF54">
+        <v>3.7302515548129599E-2</v>
+      </c>
+      <c r="AG54">
+        <v>0.128690244128841</v>
+      </c>
+      <c r="AH54">
+        <v>0.523159340659341</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34">
+      <c r="B55">
+        <v>0.12</v>
+      </c>
+      <c r="C55">
+        <v>0.05</v>
+      </c>
+      <c r="D55">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E55">
+        <v>0.33</v>
+      </c>
+      <c r="F55">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G55">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H55">
+        <v>0.17</v>
+      </c>
+      <c r="I55">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J55">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K55">
+        <v>0.33</v>
+      </c>
+      <c r="L55">
+        <v>0.05</v>
+      </c>
+      <c r="M55">
+        <v>0.3</v>
+      </c>
+      <c r="N55">
+        <v>0.2</v>
+      </c>
+      <c r="O55">
+        <v>0.11</v>
+      </c>
+      <c r="AD55">
+        <f>AVERAGE(B55:O55)</f>
+        <v>0.1485714285714286</v>
+      </c>
+      <c r="AF55">
+        <v>3.5238095238095249E-2</v>
+      </c>
+      <c r="AG55">
+        <v>0.13428571428571429</v>
+      </c>
+      <c r="AH55">
+        <v>0.46062500000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34">
+      <c r="B56">
+        <v>0.43</v>
+      </c>
+      <c r="C56">
+        <v>0.59</v>
+      </c>
+      <c r="D56">
+        <v>0.62</v>
+      </c>
+      <c r="E56">
+        <v>0.26</v>
+      </c>
+      <c r="F56">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G56">
+        <v>0.47</v>
+      </c>
+      <c r="H56">
+        <v>0.71</v>
+      </c>
+      <c r="I56">
+        <v>0.62</v>
+      </c>
+      <c r="J56">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AD56">
+        <f>AVERAGE(B56:J56)</f>
+        <v>0.50555555555555565</v>
+      </c>
+      <c r="AF56">
+        <v>2.1481481481481483E-2</v>
+      </c>
+      <c r="AG56">
+        <v>9.629629629629631E-2</v>
+      </c>
+      <c r="AH56">
+        <v>0.43928571428571422</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34">
       <c r="A57">
         <f>A54+1</f>
         <v>4</v>
@@ -5029,8 +6545,161 @@
         <f>AVERAGE(B57:V57)</f>
         <v>2.9047619047619051E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:30">
+      <c r="AF57">
+        <v>2.5263157894736842E-2</v>
+      </c>
+      <c r="AG57">
+        <v>0.12368421052631574</v>
+      </c>
+      <c r="AH57">
+        <v>0.35615384615384615</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34">
+      <c r="B58">
+        <v>0.42</v>
+      </c>
+      <c r="C58">
+        <v>0.18</v>
+      </c>
+      <c r="D58">
+        <v>0.17</v>
+      </c>
+      <c r="E58">
+        <v>0.21</v>
+      </c>
+      <c r="F58">
+        <v>0.1</v>
+      </c>
+      <c r="G58">
+        <v>0.06</v>
+      </c>
+      <c r="H58">
+        <v>0.06</v>
+      </c>
+      <c r="I58">
+        <v>0.18</v>
+      </c>
+      <c r="J58">
+        <v>0.12</v>
+      </c>
+      <c r="K58">
+        <v>0.03</v>
+      </c>
+      <c r="L58">
+        <v>0.09</v>
+      </c>
+      <c r="M58">
+        <v>0.15</v>
+      </c>
+      <c r="N58">
+        <v>0.11</v>
+      </c>
+      <c r="O58">
+        <v>0.11</v>
+      </c>
+      <c r="P58">
+        <v>0.16</v>
+      </c>
+      <c r="Q58">
+        <v>0.21</v>
+      </c>
+      <c r="R58">
+        <v>0.13</v>
+      </c>
+      <c r="S58">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="T58">
+        <v>0.17</v>
+      </c>
+      <c r="U58">
+        <v>0.19</v>
+      </c>
+      <c r="V58">
+        <v>0.12</v>
+      </c>
+      <c r="AD58">
+        <f>AVERAGE(B58:V58)</f>
+        <v>0.14809523809523811</v>
+      </c>
+      <c r="AF58">
+        <v>4.3809523809523819E-2</v>
+      </c>
+      <c r="AG58">
+        <v>0.2014285714285714</v>
+      </c>
+      <c r="AH58">
+        <v>0.50285714285714289</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34">
+      <c r="B59">
+        <v>0.4</v>
+      </c>
+      <c r="C59">
+        <v>0.66</v>
+      </c>
+      <c r="D59">
+        <v>0.6</v>
+      </c>
+      <c r="E59">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F59">
+        <v>0.32</v>
+      </c>
+      <c r="G59">
+        <v>0.43</v>
+      </c>
+      <c r="H59">
+        <v>0.41</v>
+      </c>
+      <c r="I59">
+        <v>0.35</v>
+      </c>
+      <c r="J59">
+        <v>0.3</v>
+      </c>
+      <c r="K59">
+        <v>0.38</v>
+      </c>
+      <c r="L59">
+        <v>0.39</v>
+      </c>
+      <c r="M59">
+        <v>0.34</v>
+      </c>
+      <c r="N59">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O59">
+        <v>0.32</v>
+      </c>
+      <c r="P59">
+        <v>0.47</v>
+      </c>
+      <c r="Q59">
+        <v>0.45</v>
+      </c>
+      <c r="R59">
+        <v>0.64</v>
+      </c>
+      <c r="AD59">
+        <f>AVERAGE(B59:R59)</f>
+        <v>0.42941176470588233</v>
+      </c>
+      <c r="AF59">
+        <v>4.7647058823529431E-2</v>
+      </c>
+      <c r="AG59">
+        <v>0.12764705882352945</v>
+      </c>
+      <c r="AH59">
+        <v>0.44249999999999995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34">
       <c r="A60">
         <f>A57+1</f>
         <v>5</v>
@@ -5093,8 +6762,143 @@
         <f>AVERAGE(B60:S60)</f>
         <v>4.8888888888888898E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:30">
+      <c r="AF60">
+        <v>3.6666666666666681E-2</v>
+      </c>
+      <c r="AG60">
+        <v>7.3809523809523825E-2</v>
+      </c>
+      <c r="AH60">
+        <v>0.40071428571428575</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34">
+      <c r="B61">
+        <v>0.41</v>
+      </c>
+      <c r="C61">
+        <v>0.17</v>
+      </c>
+      <c r="D61">
+        <v>0.24</v>
+      </c>
+      <c r="E61">
+        <v>0.19</v>
+      </c>
+      <c r="F61">
+        <v>0.08</v>
+      </c>
+      <c r="G61">
+        <v>0.18</v>
+      </c>
+      <c r="H61">
+        <v>0.08</v>
+      </c>
+      <c r="I61">
+        <v>0.16</v>
+      </c>
+      <c r="J61">
+        <v>0.13</v>
+      </c>
+      <c r="K61">
+        <v>0.33</v>
+      </c>
+      <c r="L61">
+        <v>0.33</v>
+      </c>
+      <c r="M61">
+        <v>0.12</v>
+      </c>
+      <c r="N61">
+        <v>0.2</v>
+      </c>
+      <c r="O61">
+        <v>0.48</v>
+      </c>
+      <c r="P61">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q61">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R61">
+        <v>0.03</v>
+      </c>
+      <c r="S61">
+        <v>0.15</v>
+      </c>
+      <c r="AD61">
+        <f>AVERAGE(B61:S61)</f>
+        <v>0.19388888888888889</v>
+      </c>
+      <c r="AF61">
+        <v>5.7500000000000009E-2</v>
+      </c>
+      <c r="AG61">
+        <v>0.12250000000000001</v>
+      </c>
+      <c r="AH61" s="4">
+        <v>0.376923077</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34">
+      <c r="B62">
+        <v>0.6</v>
+      </c>
+      <c r="C62">
+        <v>0.81</v>
+      </c>
+      <c r="D62">
+        <v>0.62</v>
+      </c>
+      <c r="E62">
+        <v>0.51</v>
+      </c>
+      <c r="F62">
+        <v>0.37</v>
+      </c>
+      <c r="G62">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H62">
+        <v>0.34</v>
+      </c>
+      <c r="I62">
+        <v>0.47</v>
+      </c>
+      <c r="J62">
+        <v>0.47</v>
+      </c>
+      <c r="K62">
+        <v>0.42</v>
+      </c>
+      <c r="L62">
+        <v>0.45</v>
+      </c>
+      <c r="M62">
+        <v>0.65</v>
+      </c>
+      <c r="N62">
+        <v>0.66</v>
+      </c>
+      <c r="O62">
+        <v>0.44</v>
+      </c>
+      <c r="AD62">
+        <f>AVERAGE(B62:O62)</f>
+        <v>0.52785714285714291</v>
+      </c>
+      <c r="AF62">
+        <v>5.9375000000000025E-2</v>
+      </c>
+      <c r="AG62">
+        <v>0.13</v>
+      </c>
+      <c r="AH62">
+        <v>0.39428571428571424</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34">
       <c r="A63">
         <f>A60+1</f>
         <v>6</v>
@@ -5157,8 +6961,140 @@
         <f>AVERAGE(B63:S63)</f>
         <v>4.7222222222222228E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:30">
+      <c r="AF63">
+        <v>5.2666666666666667E-2</v>
+      </c>
+      <c r="AG63">
+        <v>0.23133333333333331</v>
+      </c>
+      <c r="AH63">
+        <v>0.52416666666666656</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34">
+      <c r="B64">
+        <v>0.06</v>
+      </c>
+      <c r="C64">
+        <v>0.2</v>
+      </c>
+      <c r="D64">
+        <v>0.24</v>
+      </c>
+      <c r="E64">
+        <v>0.08</v>
+      </c>
+      <c r="F64">
+        <v>0.12</v>
+      </c>
+      <c r="G64">
+        <v>0.02</v>
+      </c>
+      <c r="H64">
+        <v>0.3</v>
+      </c>
+      <c r="I64">
+        <v>0.05</v>
+      </c>
+      <c r="J64">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K64">
+        <v>0.27</v>
+      </c>
+      <c r="L64">
+        <v>0.11</v>
+      </c>
+      <c r="M64">
+        <v>0.15</v>
+      </c>
+      <c r="N64">
+        <v>0.11</v>
+      </c>
+      <c r="O64">
+        <v>0.11</v>
+      </c>
+      <c r="P64">
+        <v>0.11</v>
+      </c>
+      <c r="Q64">
+        <v>0.09</v>
+      </c>
+      <c r="R64">
+        <v>0.16</v>
+      </c>
+      <c r="S64">
+        <v>0.05</v>
+      </c>
+      <c r="AD64">
+        <f>AVERAGE(B64:S64)</f>
+        <v>0.13166666666666668</v>
+      </c>
+      <c r="AF64">
+        <v>6.5714285714285725E-2</v>
+      </c>
+      <c r="AG64">
+        <v>0.25857142857142856</v>
+      </c>
+      <c r="AH64">
+        <v>0.49461538461538457</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34">
+      <c r="B65">
+        <v>0.6</v>
+      </c>
+      <c r="C65">
+        <v>0.44</v>
+      </c>
+      <c r="D65">
+        <v>0.35</v>
+      </c>
+      <c r="E65">
+        <v>0.38</v>
+      </c>
+      <c r="F65">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G65">
+        <v>0.4</v>
+      </c>
+      <c r="H65">
+        <v>0.69</v>
+      </c>
+      <c r="I65">
+        <v>0.37</v>
+      </c>
+      <c r="J65">
+        <v>0.51</v>
+      </c>
+      <c r="K65">
+        <v>0.51</v>
+      </c>
+      <c r="L65">
+        <v>0.48</v>
+      </c>
+      <c r="M65">
+        <v>0.67</v>
+      </c>
+      <c r="N65">
+        <v>0.38</v>
+      </c>
+      <c r="AD65">
+        <f>AVERAGE(B65:N65)</f>
+        <v>0.46692307692307689</v>
+      </c>
+      <c r="AF65">
+        <v>5.0588235294117656E-2</v>
+      </c>
+      <c r="AG65">
+        <v>0.2064705882352941</v>
+      </c>
+      <c r="AH65">
+        <v>0.49375000000000008</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34">
       <c r="A66">
         <f>A63+1</f>
         <v>7</v>
@@ -5221,8 +7157,146 @@
         <f>AVERAGE(B66:S66)</f>
         <v>5.5000000000000021E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:30">
+      <c r="AF66">
+        <v>4.5882352941176471E-2</v>
+      </c>
+      <c r="AG66">
+        <v>0.12352941176470592</v>
+      </c>
+      <c r="AH66">
+        <v>0.51454545454545453</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34">
+      <c r="B67">
+        <v>0.1</v>
+      </c>
+      <c r="C67">
+        <v>0.33</v>
+      </c>
+      <c r="D67">
+        <v>0.12</v>
+      </c>
+      <c r="E67">
+        <v>0.23</v>
+      </c>
+      <c r="F67">
+        <v>0.08</v>
+      </c>
+      <c r="G67">
+        <v>0.11</v>
+      </c>
+      <c r="H67">
+        <v>0.26</v>
+      </c>
+      <c r="I67">
+        <v>0.03</v>
+      </c>
+      <c r="J67">
+        <v>0.02</v>
+      </c>
+      <c r="K67">
+        <v>0.24</v>
+      </c>
+      <c r="L67">
+        <v>0.05</v>
+      </c>
+      <c r="M67">
+        <v>0.1</v>
+      </c>
+      <c r="N67">
+        <v>0.21</v>
+      </c>
+      <c r="O67">
+        <v>0.4</v>
+      </c>
+      <c r="P67">
+        <v>0.12</v>
+      </c>
+      <c r="Q67">
+        <v>0.13</v>
+      </c>
+      <c r="R67">
+        <v>0.03</v>
+      </c>
+      <c r="S67">
+        <v>0.19</v>
+      </c>
+      <c r="AD67">
+        <f>AVERAGE(B67:S67)</f>
+        <v>0.15277777777777779</v>
+      </c>
+      <c r="AF67">
+        <v>6.1578947368421046E-2</v>
+      </c>
+      <c r="AG67">
+        <v>0.15578947368421053</v>
+      </c>
+      <c r="AH67">
+        <v>0.45999999999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34">
+      <c r="B68">
+        <v>0.39</v>
+      </c>
+      <c r="C68">
+        <v>0.43</v>
+      </c>
+      <c r="D68">
+        <v>0.41</v>
+      </c>
+      <c r="E68">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F68">
+        <v>0.46</v>
+      </c>
+      <c r="G68">
+        <v>0.42</v>
+      </c>
+      <c r="H68">
+        <v>0.83</v>
+      </c>
+      <c r="I68">
+        <v>0.6</v>
+      </c>
+      <c r="J68">
+        <v>0.33</v>
+      </c>
+      <c r="K68">
+        <v>0.41</v>
+      </c>
+      <c r="L68">
+        <v>0.4</v>
+      </c>
+      <c r="M68">
+        <v>0.43</v>
+      </c>
+      <c r="N68">
+        <v>0.7</v>
+      </c>
+      <c r="O68">
+        <v>0.6</v>
+      </c>
+      <c r="P68">
+        <v>0.62</v>
+      </c>
+      <c r="AD68">
+        <f>AVERAGE(B68:P68)</f>
+        <v>0.48800000000000004</v>
+      </c>
+      <c r="AF68">
+        <v>5.4666666666666669E-2</v>
+      </c>
+      <c r="AG68">
+        <v>0.13866666666666666</v>
+      </c>
+      <c r="AH68">
+        <v>0.45727272727272739</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34">
       <c r="A69">
         <f>A66+1</f>
         <v>8</v>
@@ -5312,8 +7386,191 @@
         <f>AVERAGE(B69:AB69)</f>
         <v>2.3703703703703709E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:30">
+      <c r="AF69">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AG69">
+        <v>0.20624999999999999</v>
+      </c>
+      <c r="AH69">
+        <v>0.55400000000000005</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34">
+      <c r="B70">
+        <v>0.11</v>
+      </c>
+      <c r="C70">
+        <v>0.25</v>
+      </c>
+      <c r="D70">
+        <v>0.11</v>
+      </c>
+      <c r="E70">
+        <v>0.05</v>
+      </c>
+      <c r="F70">
+        <v>0.17</v>
+      </c>
+      <c r="G70">
+        <v>0.19</v>
+      </c>
+      <c r="H70">
+        <v>0.33</v>
+      </c>
+      <c r="I70">
+        <v>0.09</v>
+      </c>
+      <c r="J70">
+        <v>0.08</v>
+      </c>
+      <c r="K70">
+        <v>0.03</v>
+      </c>
+      <c r="L70">
+        <v>0.12</v>
+      </c>
+      <c r="M70">
+        <v>0.09</v>
+      </c>
+      <c r="N70">
+        <v>0.22</v>
+      </c>
+      <c r="O70">
+        <v>0.34</v>
+      </c>
+      <c r="P70">
+        <v>0.03</v>
+      </c>
+      <c r="Q70">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R70">
+        <v>0.35</v>
+      </c>
+      <c r="S70">
+        <v>0.19</v>
+      </c>
+      <c r="T70">
+        <v>0.21</v>
+      </c>
+      <c r="U70">
+        <v>0.03</v>
+      </c>
+      <c r="V70">
+        <v>0.1</v>
+      </c>
+      <c r="W70">
+        <v>0.06</v>
+      </c>
+      <c r="X70">
+        <v>0.09</v>
+      </c>
+      <c r="Y70">
+        <v>0.08</v>
+      </c>
+      <c r="Z70">
+        <v>0.27</v>
+      </c>
+      <c r="AA70">
+        <v>0.38</v>
+      </c>
+      <c r="AB70">
+        <v>0.43</v>
+      </c>
+      <c r="AD70">
+        <f>AVERAGE(B70:AB70)</f>
+        <v>0.17370370370370369</v>
+      </c>
+      <c r="AF70">
+        <v>2.5714285714285717E-2</v>
+      </c>
+      <c r="AG70">
+        <v>0.19190476190476188</v>
+      </c>
+      <c r="AH70">
+        <v>0.55500000000000005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34">
+      <c r="B71">
+        <v>0.46</v>
+      </c>
+      <c r="C71">
+        <v>0.36</v>
+      </c>
+      <c r="D71">
+        <v>0.6</v>
+      </c>
+      <c r="E71">
+        <v>0.46</v>
+      </c>
+      <c r="F71">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G71">
+        <v>0.49</v>
+      </c>
+      <c r="H71">
+        <v>0.37</v>
+      </c>
+      <c r="I71">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J71">
+        <v>0.43</v>
+      </c>
+      <c r="K71">
+        <v>0.49</v>
+      </c>
+      <c r="L71">
+        <v>0.31</v>
+      </c>
+      <c r="M71">
+        <v>0.36</v>
+      </c>
+      <c r="N71">
+        <v>0.46</v>
+      </c>
+      <c r="O71">
+        <v>0.48</v>
+      </c>
+      <c r="P71">
+        <v>0.31</v>
+      </c>
+      <c r="Q71">
+        <v>0.47</v>
+      </c>
+      <c r="R71">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="S71">
+        <v>0.51</v>
+      </c>
+      <c r="T71">
+        <v>0.45</v>
+      </c>
+      <c r="U71">
+        <v>0.64</v>
+      </c>
+      <c r="V71">
+        <v>0.67</v>
+      </c>
+      <c r="AD71">
+        <f>AVERAGE(B71:V71)</f>
+        <v>0.4628571428571428</v>
+      </c>
+      <c r="AF71">
+        <v>5.2631578947368432E-2</v>
+      </c>
+      <c r="AG71">
+        <v>0.19578947368421051</v>
+      </c>
+      <c r="AH71">
+        <v>0.59416666666666673</v>
+      </c>
+    </row>
+    <row r="72" spans="1:34">
       <c r="A72">
         <f>A69+1</f>
         <v>9</v>
@@ -5397,8 +7654,167 @@
         <f>AVERAGE(B72:Z72)</f>
         <v>3.0000000000000006E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:30">
+      <c r="AF72">
+        <v>3.5555555555555562E-2</v>
+      </c>
+      <c r="AG72">
+        <v>0.11117647058823532</v>
+      </c>
+      <c r="AH72">
+        <v>0.42333333333333328</v>
+      </c>
+    </row>
+    <row r="73" spans="1:34">
+      <c r="B73">
+        <v>0.33</v>
+      </c>
+      <c r="C73">
+        <v>0.11</v>
+      </c>
+      <c r="D73">
+        <v>0.17</v>
+      </c>
+      <c r="E73">
+        <v>0.02</v>
+      </c>
+      <c r="F73">
+        <v>0.02</v>
+      </c>
+      <c r="G73">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H73">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I73">
+        <v>0.25</v>
+      </c>
+      <c r="J73">
+        <v>0.05</v>
+      </c>
+      <c r="K73">
+        <v>0.05</v>
+      </c>
+      <c r="L73">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M73">
+        <v>0.15</v>
+      </c>
+      <c r="N73">
+        <v>0.03</v>
+      </c>
+      <c r="O73">
+        <v>0.05</v>
+      </c>
+      <c r="P73">
+        <v>0.26</v>
+      </c>
+      <c r="Q73">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R73">
+        <v>0.18</v>
+      </c>
+      <c r="S73">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T73">
+        <v>0.05</v>
+      </c>
+      <c r="U73">
+        <v>0.21</v>
+      </c>
+      <c r="V73">
+        <v>0.25</v>
+      </c>
+      <c r="W73">
+        <v>0.06</v>
+      </c>
+      <c r="X73">
+        <v>0.1</v>
+      </c>
+      <c r="Y73">
+        <v>0.36</v>
+      </c>
+      <c r="Z73">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AD73">
+        <f>AVERAGE(B73:Z73)</f>
+        <v>0.14760000000000001</v>
+      </c>
+      <c r="AF73">
+        <v>6.6923076923076918E-2</v>
+      </c>
+      <c r="AG73">
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="AH73">
+        <v>0.49090909090909096</v>
+      </c>
+    </row>
+    <row r="74" spans="1:34">
+      <c r="B74">
+        <v>0.36</v>
+      </c>
+      <c r="C74">
+        <v>0.42</v>
+      </c>
+      <c r="D74">
+        <v>0.47</v>
+      </c>
+      <c r="E74">
+        <v>0.61</v>
+      </c>
+      <c r="F74">
+        <v>0.47</v>
+      </c>
+      <c r="G74">
+        <v>0.52</v>
+      </c>
+      <c r="H74">
+        <v>0.61</v>
+      </c>
+      <c r="I74">
+        <v>0.51</v>
+      </c>
+      <c r="J74">
+        <v>0.71</v>
+      </c>
+      <c r="K74">
+        <v>0.65</v>
+      </c>
+      <c r="L74">
+        <v>0.43</v>
+      </c>
+      <c r="M74">
+        <v>0.36</v>
+      </c>
+      <c r="N74">
+        <v>0.43</v>
+      </c>
+      <c r="O74">
+        <v>0.87</v>
+      </c>
+      <c r="P74">
+        <v>0.43</v>
+      </c>
+      <c r="AD74">
+        <f>AVERAGE(B74:P74)</f>
+        <v>0.52333333333333332</v>
+      </c>
+      <c r="AF74">
+        <v>3.2272727272727279E-2</v>
+      </c>
+      <c r="AG74">
+        <v>0.10772727272727275</v>
+      </c>
+      <c r="AH74">
+        <v>0.4809090909090909</v>
+      </c>
+    </row>
+    <row r="75" spans="1:34">
       <c r="A75">
         <f>A72+1</f>
         <v>10</v>
@@ -5470,8 +7886,158 @@
         <f>AVERAGE(B75:V75)</f>
         <v>3.5238095238095249E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:30">
+      <c r="AF75">
+        <v>7.3333333333333334E-2</v>
+      </c>
+      <c r="AG75">
+        <v>0.104</v>
+      </c>
+      <c r="AH75">
+        <v>0.41111111111111109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:34">
+      <c r="B76">
+        <v>0.03</v>
+      </c>
+      <c r="C76">
+        <v>0.21</v>
+      </c>
+      <c r="D76">
+        <v>0.12</v>
+      </c>
+      <c r="E76">
+        <v>0.18</v>
+      </c>
+      <c r="F76">
+        <v>0.06</v>
+      </c>
+      <c r="G76">
+        <v>0.27</v>
+      </c>
+      <c r="H76">
+        <v>0.06</v>
+      </c>
+      <c r="I76">
+        <v>0.06</v>
+      </c>
+      <c r="J76">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K76">
+        <v>0.12</v>
+      </c>
+      <c r="L76">
+        <v>0.15</v>
+      </c>
+      <c r="M76">
+        <v>0.2</v>
+      </c>
+      <c r="N76">
+        <v>0.09</v>
+      </c>
+      <c r="O76">
+        <v>0.22</v>
+      </c>
+      <c r="P76">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q76">
+        <v>0.09</v>
+      </c>
+      <c r="R76">
+        <v>0.16</v>
+      </c>
+      <c r="S76">
+        <v>0.16</v>
+      </c>
+      <c r="T76">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="U76">
+        <v>0.17</v>
+      </c>
+      <c r="V76">
+        <v>0.19</v>
+      </c>
+      <c r="AD76">
+        <f>AVERAGE(B76:V76)</f>
+        <v>0.13428571428571429</v>
+      </c>
+      <c r="AF76">
+        <v>5.0588235294117649E-2</v>
+      </c>
+      <c r="AG76">
+        <v>0.1558823529411765</v>
+      </c>
+      <c r="AH76">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:34">
+      <c r="B77">
+        <v>0.54</v>
+      </c>
+      <c r="C77">
+        <v>0.31</v>
+      </c>
+      <c r="D77">
+        <v>0.36</v>
+      </c>
+      <c r="E77">
+        <v>0.68</v>
+      </c>
+      <c r="F77">
+        <v>0.39</v>
+      </c>
+      <c r="G77">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H77">
+        <v>0.38</v>
+      </c>
+      <c r="I77">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J77">
+        <v>0.4</v>
+      </c>
+      <c r="K77">
+        <v>0.44</v>
+      </c>
+      <c r="L77">
+        <v>0.37</v>
+      </c>
+      <c r="M77">
+        <v>0.43</v>
+      </c>
+      <c r="N77">
+        <v>0.54</v>
+      </c>
+      <c r="O77">
+        <v>0.39</v>
+      </c>
+      <c r="P77">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Q77">
+        <v>0.71</v>
+      </c>
+      <c r="AD77">
+        <f>AVERAGE(B77:Q77)</f>
+        <v>0.46062500000000001</v>
+      </c>
+      <c r="AF77">
+        <v>5.5454545454545465E-2</v>
+      </c>
+      <c r="AG77">
+        <v>0.20727272727272725</v>
+      </c>
+      <c r="AH77">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:34">
       <c r="A78">
         <f>A75+1</f>
         <v>11</v>
@@ -5554,9 +8120,174 @@
       <c r="AA78">
         <v>0.02</v>
       </c>
+      <c r="AB78">
+        <v>0.02</v>
+      </c>
       <c r="AD78">
-        <f>AVERAGE(B78:AA78)</f>
-        <v>2.1538461538461541E-2</v>
+        <f>AVERAGE(B78:AB78)</f>
+        <v>2.1481481481481483E-2</v>
+      </c>
+      <c r="AF78">
+        <v>0.08</v>
+      </c>
+      <c r="AG78">
+        <v>0.28916666666666663</v>
+      </c>
+      <c r="AH78">
+        <v>0.51999999999999991</v>
+      </c>
+    </row>
+    <row r="79" spans="1:34">
+      <c r="B79">
+        <v>0.12</v>
+      </c>
+      <c r="C79">
+        <v>0.06</v>
+      </c>
+      <c r="D79">
+        <v>0.05</v>
+      </c>
+      <c r="E79">
+        <v>0.12</v>
+      </c>
+      <c r="F79">
+        <v>0.09</v>
+      </c>
+      <c r="G79">
+        <v>0.1</v>
+      </c>
+      <c r="H79">
+        <v>0.03</v>
+      </c>
+      <c r="I79">
+        <v>0.19</v>
+      </c>
+      <c r="J79">
+        <v>0.12</v>
+      </c>
+      <c r="K79">
+        <v>0.05</v>
+      </c>
+      <c r="L79">
+        <v>0.06</v>
+      </c>
+      <c r="M79">
+        <v>0.05</v>
+      </c>
+      <c r="N79">
+        <v>0.08</v>
+      </c>
+      <c r="O79">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P79">
+        <v>0.27</v>
+      </c>
+      <c r="Q79">
+        <v>0.08</v>
+      </c>
+      <c r="R79">
+        <v>0.16</v>
+      </c>
+      <c r="S79">
+        <v>0.03</v>
+      </c>
+      <c r="T79">
+        <v>0.03</v>
+      </c>
+      <c r="U79">
+        <v>0.17</v>
+      </c>
+      <c r="V79">
+        <v>0.08</v>
+      </c>
+      <c r="W79">
+        <v>0.06</v>
+      </c>
+      <c r="X79">
+        <v>0.18</v>
+      </c>
+      <c r="Y79">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Z79">
+        <v>0.03</v>
+      </c>
+      <c r="AA79">
+        <v>0.08</v>
+      </c>
+      <c r="AB79">
+        <v>0.1</v>
+      </c>
+      <c r="AD79">
+        <f>AVERAGE(B79:AB79)</f>
+        <v>9.629629629629631E-2</v>
+      </c>
+      <c r="AF79">
+        <v>3.8235294117647055E-2</v>
+      </c>
+      <c r="AG79">
+        <v>8.7058823529411786E-2</v>
+      </c>
+      <c r="AH79">
+        <v>0.44461538461538463</v>
+      </c>
+    </row>
+    <row r="80" spans="1:34">
+      <c r="B80">
+        <v>0.51</v>
+      </c>
+      <c r="C80">
+        <v>0.31</v>
+      </c>
+      <c r="D80">
+        <v>0.44</v>
+      </c>
+      <c r="E80">
+        <v>0.44</v>
+      </c>
+      <c r="F80">
+        <v>0.45</v>
+      </c>
+      <c r="G80">
+        <v>0.34</v>
+      </c>
+      <c r="H80">
+        <v>0.66</v>
+      </c>
+      <c r="I80">
+        <v>0.36</v>
+      </c>
+      <c r="J80">
+        <v>0.39</v>
+      </c>
+      <c r="K80">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L80">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M80">
+        <v>0.44</v>
+      </c>
+      <c r="N80">
+        <v>0.3</v>
+      </c>
+      <c r="O80">
+        <v>0.39</v>
+      </c>
+      <c r="AD80">
+        <f>AVERAGE(B80:O80)</f>
+        <v>0.43928571428571422</v>
+      </c>
+      <c r="AF80">
+        <v>5.9285714285714282E-2</v>
+      </c>
+      <c r="AG80">
+        <v>0.19285714285714284</v>
+      </c>
+      <c r="AH80">
+        <v>0.47999999999999993</v>
       </c>
     </row>
     <row r="81" spans="1:30">
@@ -5626,6 +8357,114 @@
         <v>2.5263157894736842E-2</v>
       </c>
     </row>
+    <row r="82" spans="1:30">
+      <c r="B82">
+        <v>0.1</v>
+      </c>
+      <c r="C82">
+        <v>0.3</v>
+      </c>
+      <c r="D82">
+        <v>0.13</v>
+      </c>
+      <c r="E82">
+        <v>0.1</v>
+      </c>
+      <c r="F82">
+        <v>0.1</v>
+      </c>
+      <c r="G82">
+        <v>0.08</v>
+      </c>
+      <c r="H82">
+        <v>0.03</v>
+      </c>
+      <c r="I82">
+        <v>0.02</v>
+      </c>
+      <c r="J82">
+        <v>0.06</v>
+      </c>
+      <c r="K82">
+        <v>0.17</v>
+      </c>
+      <c r="L82">
+        <v>0.17</v>
+      </c>
+      <c r="M82">
+        <v>0.11</v>
+      </c>
+      <c r="N82">
+        <v>0.34</v>
+      </c>
+      <c r="O82">
+        <v>0.25</v>
+      </c>
+      <c r="P82">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q82">
+        <v>0.05</v>
+      </c>
+      <c r="R82">
+        <v>0.11</v>
+      </c>
+      <c r="S82">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T82">
+        <v>0.09</v>
+      </c>
+      <c r="AD82">
+        <f>AVERAGE(B82:T82)</f>
+        <v>0.12368421052631574</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30">
+      <c r="B83">
+        <v>0.26</v>
+      </c>
+      <c r="C83">
+        <v>0.35</v>
+      </c>
+      <c r="D83">
+        <v>0.53</v>
+      </c>
+      <c r="E83">
+        <v>0.24</v>
+      </c>
+      <c r="F83">
+        <v>0.37</v>
+      </c>
+      <c r="G83">
+        <v>0.4</v>
+      </c>
+      <c r="H83">
+        <v>0.39</v>
+      </c>
+      <c r="I83">
+        <v>0.35</v>
+      </c>
+      <c r="J83">
+        <v>0.36</v>
+      </c>
+      <c r="K83">
+        <v>0.35</v>
+      </c>
+      <c r="L83">
+        <v>0.34</v>
+      </c>
+      <c r="M83">
+        <v>0.35</v>
+      </c>
+      <c r="N83">
+        <v>0.34</v>
+      </c>
+      <c r="AD83">
+        <f>AVERAGE(B83:N83)</f>
+        <v>0.35615384615384615</v>
+      </c>
+    </row>
     <row r="84" spans="1:30">
       <c r="A84">
         <f>A81+1</f>
@@ -5699,6 +8538,123 @@
         <v>4.3809523809523819E-2</v>
       </c>
     </row>
+    <row r="85" spans="1:30">
+      <c r="B85">
+        <v>0.05</v>
+      </c>
+      <c r="C85">
+        <v>0.23</v>
+      </c>
+      <c r="D85">
+        <v>0.24</v>
+      </c>
+      <c r="E85">
+        <v>0.13</v>
+      </c>
+      <c r="F85">
+        <v>0.12</v>
+      </c>
+      <c r="G85">
+        <v>0.38</v>
+      </c>
+      <c r="H85">
+        <v>0.12</v>
+      </c>
+      <c r="I85">
+        <v>0.65</v>
+      </c>
+      <c r="J85">
+        <v>0.06</v>
+      </c>
+      <c r="K85">
+        <v>0.11</v>
+      </c>
+      <c r="L85">
+        <v>0.22</v>
+      </c>
+      <c r="M85">
+        <v>0.04</v>
+      </c>
+      <c r="N85">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O85">
+        <v>0.05</v>
+      </c>
+      <c r="P85">
+        <v>0.38</v>
+      </c>
+      <c r="Q85">
+        <v>0.08</v>
+      </c>
+      <c r="R85">
+        <v>0.19</v>
+      </c>
+      <c r="S85">
+        <v>0.05</v>
+      </c>
+      <c r="T85">
+        <v>0.44</v>
+      </c>
+      <c r="U85">
+        <v>0.22</v>
+      </c>
+      <c r="V85">
+        <v>0.33</v>
+      </c>
+      <c r="AD85">
+        <f>AVERAGE(B85:V85)</f>
+        <v>0.2014285714285714</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30">
+      <c r="B86">
+        <v>0.6</v>
+      </c>
+      <c r="C86">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D86">
+        <v>0.42</v>
+      </c>
+      <c r="E86">
+        <v>0.6</v>
+      </c>
+      <c r="F86">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G86">
+        <v>0.33</v>
+      </c>
+      <c r="H86">
+        <v>0.38</v>
+      </c>
+      <c r="I86">
+        <v>0.65</v>
+      </c>
+      <c r="J86">
+        <v>0.75</v>
+      </c>
+      <c r="K86">
+        <v>0.44</v>
+      </c>
+      <c r="L86">
+        <v>0.43</v>
+      </c>
+      <c r="M86">
+        <v>0.38</v>
+      </c>
+      <c r="N86">
+        <v>0.6</v>
+      </c>
+      <c r="O86">
+        <v>0.32</v>
+      </c>
+      <c r="AD86">
+        <f>AVERAGE(B86:O86)</f>
+        <v>0.50285714285714289</v>
+      </c>
+    </row>
     <row r="87" spans="1:30">
       <c r="A87">
         <f>A84+1</f>
@@ -5760,6 +8716,105 @@
         <v>4.7647058823529431E-2</v>
       </c>
     </row>
+    <row r="88" spans="1:30">
+      <c r="B88">
+        <v>0.1</v>
+      </c>
+      <c r="C88">
+        <v>0.11</v>
+      </c>
+      <c r="D88">
+        <v>0.09</v>
+      </c>
+      <c r="E88">
+        <v>0.24</v>
+      </c>
+      <c r="F88">
+        <v>0.12</v>
+      </c>
+      <c r="G88">
+        <v>0.2</v>
+      </c>
+      <c r="H88">
+        <v>0.17</v>
+      </c>
+      <c r="I88">
+        <v>0.12</v>
+      </c>
+      <c r="J88">
+        <v>0.33</v>
+      </c>
+      <c r="K88">
+        <v>0.12</v>
+      </c>
+      <c r="L88">
+        <v>0.04</v>
+      </c>
+      <c r="M88">
+        <v>0.21</v>
+      </c>
+      <c r="N88">
+        <v>0.06</v>
+      </c>
+      <c r="O88">
+        <v>0.02</v>
+      </c>
+      <c r="P88">
+        <v>0.06</v>
+      </c>
+      <c r="Q88">
+        <v>0.16</v>
+      </c>
+      <c r="R88">
+        <v>0.02</v>
+      </c>
+      <c r="AD88">
+        <f>AVERAGE(B88:R88)</f>
+        <v>0.12764705882352945</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30">
+      <c r="B89">
+        <v>0.33</v>
+      </c>
+      <c r="C89">
+        <v>0.72</v>
+      </c>
+      <c r="D89">
+        <v>0.68</v>
+      </c>
+      <c r="E89">
+        <v>0.38</v>
+      </c>
+      <c r="F89">
+        <v>0.46</v>
+      </c>
+      <c r="G89">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H89">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I89">
+        <v>0.36</v>
+      </c>
+      <c r="J89">
+        <v>0.48</v>
+      </c>
+      <c r="K89">
+        <v>0.37</v>
+      </c>
+      <c r="L89">
+        <v>0.38</v>
+      </c>
+      <c r="M89">
+        <v>0.31</v>
+      </c>
+      <c r="AD89">
+        <f>AVERAGE(B89:M89)</f>
+        <v>0.44249999999999995</v>
+      </c>
+    </row>
     <row r="90" spans="1:30">
       <c r="A90">
         <f>A87+1</f>
@@ -5833,6 +8888,123 @@
         <v>3.6666666666666681E-2</v>
       </c>
     </row>
+    <row r="91" spans="1:30">
+      <c r="B91">
+        <v>0.1</v>
+      </c>
+      <c r="C91">
+        <v>0.06</v>
+      </c>
+      <c r="D91">
+        <v>0.04</v>
+      </c>
+      <c r="E91">
+        <v>0.03</v>
+      </c>
+      <c r="F91">
+        <v>0.05</v>
+      </c>
+      <c r="G91">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H91">
+        <v>0.12</v>
+      </c>
+      <c r="I91">
+        <v>0.06</v>
+      </c>
+      <c r="J91">
+        <v>0.02</v>
+      </c>
+      <c r="K91">
+        <v>0.1</v>
+      </c>
+      <c r="L91">
+        <v>0.06</v>
+      </c>
+      <c r="M91">
+        <v>0.06</v>
+      </c>
+      <c r="N91">
+        <v>0.08</v>
+      </c>
+      <c r="O91">
+        <v>0.08</v>
+      </c>
+      <c r="P91">
+        <v>0.1</v>
+      </c>
+      <c r="Q91">
+        <v>0.05</v>
+      </c>
+      <c r="R91">
+        <v>0.05</v>
+      </c>
+      <c r="S91">
+        <v>0.04</v>
+      </c>
+      <c r="T91">
+        <v>0.13</v>
+      </c>
+      <c r="U91">
+        <v>0.1</v>
+      </c>
+      <c r="V91">
+        <v>0.15</v>
+      </c>
+      <c r="AD91">
+        <f>AVERAGE(B91:V91)</f>
+        <v>7.3809523809523825E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30">
+      <c r="B92">
+        <v>0.27</v>
+      </c>
+      <c r="C92">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D92">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E92">
+        <v>0.39</v>
+      </c>
+      <c r="F92">
+        <v>0.79</v>
+      </c>
+      <c r="G92">
+        <v>0.37</v>
+      </c>
+      <c r="H92">
+        <v>0.45</v>
+      </c>
+      <c r="I92">
+        <v>0.49</v>
+      </c>
+      <c r="J92">
+        <v>0.38</v>
+      </c>
+      <c r="K92">
+        <v>0.4</v>
+      </c>
+      <c r="L92">
+        <v>0.3</v>
+      </c>
+      <c r="M92">
+        <v>0.31</v>
+      </c>
+      <c r="N92">
+        <v>0.41</v>
+      </c>
+      <c r="O92">
+        <v>0.22</v>
+      </c>
+      <c r="AD92">
+        <f>AVERAGE(B92:O92)</f>
+        <v>0.40071428571428575</v>
+      </c>
+    </row>
     <row r="93" spans="1:30">
       <c r="A93">
         <f>A90+1</f>
@@ -5891,6 +9063,105 @@
         <v>5.7500000000000009E-2</v>
       </c>
     </row>
+    <row r="94" spans="1:30">
+      <c r="B94">
+        <v>0.12</v>
+      </c>
+      <c r="C94">
+        <v>0.09</v>
+      </c>
+      <c r="D94">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E94">
+        <v>0.05</v>
+      </c>
+      <c r="F94">
+        <v>0.02</v>
+      </c>
+      <c r="G94">
+        <v>0.17</v>
+      </c>
+      <c r="H94">
+        <v>0.2</v>
+      </c>
+      <c r="I94">
+        <v>0.19</v>
+      </c>
+      <c r="J94">
+        <v>0.13</v>
+      </c>
+      <c r="K94">
+        <v>0.12</v>
+      </c>
+      <c r="L94">
+        <v>0.21</v>
+      </c>
+      <c r="M94">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N94">
+        <v>0.02</v>
+      </c>
+      <c r="O94">
+        <v>0.08</v>
+      </c>
+      <c r="P94">
+        <v>0.1</v>
+      </c>
+      <c r="Q94">
+        <v>0.18</v>
+      </c>
+      <c r="AD94">
+        <f>AVERAGE(B94:Q94)</f>
+        <v>0.12250000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30">
+      <c r="B95">
+        <v>0.3</v>
+      </c>
+      <c r="C95">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D95">
+        <v>0.43</v>
+      </c>
+      <c r="E95">
+        <v>0.42</v>
+      </c>
+      <c r="F95">
+        <v>0.41</v>
+      </c>
+      <c r="G95">
+        <v>0.8</v>
+      </c>
+      <c r="H95">
+        <v>0.22</v>
+      </c>
+      <c r="I95">
+        <v>0.32</v>
+      </c>
+      <c r="J95">
+        <v>0.74</v>
+      </c>
+      <c r="K95">
+        <v>0.25</v>
+      </c>
+      <c r="L95">
+        <v>0.21</v>
+      </c>
+      <c r="M95">
+        <v>0.2</v>
+      </c>
+      <c r="N95">
+        <v>0.32</v>
+      </c>
+      <c r="AD95">
+        <f>AVERAGE(B95:N95)</f>
+        <v>0.37692307692307697</v>
+      </c>
+    </row>
     <row r="96" spans="1:30">
       <c r="A96">
         <f>A93+1</f>
@@ -5949,6 +9220,108 @@
         <v>5.9375000000000025E-2</v>
       </c>
     </row>
+    <row r="97" spans="1:30">
+      <c r="B97">
+        <v>0.06</v>
+      </c>
+      <c r="C97">
+        <v>0.22</v>
+      </c>
+      <c r="D97">
+        <v>0.05</v>
+      </c>
+      <c r="E97">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F97">
+        <v>0.33</v>
+      </c>
+      <c r="G97">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H97">
+        <v>0.2</v>
+      </c>
+      <c r="I97">
+        <v>0.09</v>
+      </c>
+      <c r="J97">
+        <v>0.08</v>
+      </c>
+      <c r="K97">
+        <v>0.11</v>
+      </c>
+      <c r="L97">
+        <v>0.06</v>
+      </c>
+      <c r="M97">
+        <v>0.04</v>
+      </c>
+      <c r="N97">
+        <v>0.09</v>
+      </c>
+      <c r="O97">
+        <v>0.09</v>
+      </c>
+      <c r="P97">
+        <v>0.47</v>
+      </c>
+      <c r="Q97">
+        <v>0.05</v>
+      </c>
+      <c r="AD97">
+        <f>AVERAGE(B97:Q97)</f>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:30">
+      <c r="B98">
+        <v>0.35</v>
+      </c>
+      <c r="C98">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D98">
+        <v>0.5</v>
+      </c>
+      <c r="E98">
+        <v>0.31</v>
+      </c>
+      <c r="F98">
+        <v>0.63</v>
+      </c>
+      <c r="G98">
+        <v>0.33</v>
+      </c>
+      <c r="H98">
+        <v>0.38</v>
+      </c>
+      <c r="I98">
+        <v>0.43</v>
+      </c>
+      <c r="J98">
+        <v>0.39</v>
+      </c>
+      <c r="K98">
+        <v>0.35</v>
+      </c>
+      <c r="L98">
+        <v>0.17</v>
+      </c>
+      <c r="M98">
+        <v>0.46</v>
+      </c>
+      <c r="N98">
+        <v>0.33</v>
+      </c>
+      <c r="O98">
+        <v>0.34</v>
+      </c>
+      <c r="AD98">
+        <f>AVERAGE(B98:O98)</f>
+        <v>0.39428571428571424</v>
+      </c>
+    </row>
     <row r="99" spans="1:30">
       <c r="A99">
         <f>A96+1</f>
@@ -5996,12 +9369,105 @@
       <c r="O99">
         <v>0</v>
       </c>
-      <c r="Q99">
+      <c r="P99">
         <v>0.08</v>
       </c>
       <c r="AD99">
-        <f>AVERAGE(B99:Q99)</f>
+        <f>AVERAGE(B99:P99)</f>
         <v>5.2666666666666667E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:30">
+      <c r="B100">
+        <v>0.24</v>
+      </c>
+      <c r="C100">
+        <v>0.18</v>
+      </c>
+      <c r="D100">
+        <v>0.27</v>
+      </c>
+      <c r="E100">
+        <v>0.45</v>
+      </c>
+      <c r="F100">
+        <v>0.38</v>
+      </c>
+      <c r="G100">
+        <v>0.2</v>
+      </c>
+      <c r="H100">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I100">
+        <v>0.1</v>
+      </c>
+      <c r="J100">
+        <v>0.16</v>
+      </c>
+      <c r="K100">
+        <v>0.16</v>
+      </c>
+      <c r="L100">
+        <v>0.08</v>
+      </c>
+      <c r="M100">
+        <v>0.15</v>
+      </c>
+      <c r="N100">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O100">
+        <v>0.25</v>
+      </c>
+      <c r="P100">
+        <v>0.49</v>
+      </c>
+      <c r="AD100">
+        <f>AVERAGE(B100:P100)</f>
+        <v>0.23133333333333331</v>
+      </c>
+    </row>
+    <row r="101" spans="1:30">
+      <c r="B101">
+        <v>0.52</v>
+      </c>
+      <c r="C101">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D101">
+        <v>0.54</v>
+      </c>
+      <c r="E101">
+        <v>0.51</v>
+      </c>
+      <c r="F101">
+        <v>0.63</v>
+      </c>
+      <c r="G101">
+        <v>0.63</v>
+      </c>
+      <c r="H101">
+        <v>0.36</v>
+      </c>
+      <c r="I101">
+        <v>0.4</v>
+      </c>
+      <c r="J101">
+        <v>0.47</v>
+      </c>
+      <c r="K101">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L101">
+        <v>0.52</v>
+      </c>
+      <c r="M101">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AD101">
+        <f>AVERAGE(B101:M101)</f>
+        <v>0.52416666666666656</v>
       </c>
     </row>
     <row r="102" spans="1:30">
@@ -6056,6 +9522,99 @@
         <v>6.5714285714285725E-2</v>
       </c>
     </row>
+    <row r="103" spans="1:30">
+      <c r="B103">
+        <v>0.09</v>
+      </c>
+      <c r="C103">
+        <v>0.67</v>
+      </c>
+      <c r="D103">
+        <v>0.13</v>
+      </c>
+      <c r="E103">
+        <v>0.49</v>
+      </c>
+      <c r="F103">
+        <v>0.17</v>
+      </c>
+      <c r="G103">
+        <v>0.46</v>
+      </c>
+      <c r="H103">
+        <v>0.11</v>
+      </c>
+      <c r="I103">
+        <v>0.47</v>
+      </c>
+      <c r="J103">
+        <v>0.15</v>
+      </c>
+      <c r="K103">
+        <v>0.04</v>
+      </c>
+      <c r="L103">
+        <v>0.27</v>
+      </c>
+      <c r="M103">
+        <v>0.3</v>
+      </c>
+      <c r="N103">
+        <v>0.17</v>
+      </c>
+      <c r="O103">
+        <v>0.1</v>
+      </c>
+      <c r="AD103">
+        <f>AVERAGE(B103:O103)</f>
+        <v>0.25857142857142856</v>
+      </c>
+    </row>
+    <row r="104" spans="1:30">
+      <c r="B104">
+        <v>0.42</v>
+      </c>
+      <c r="C104">
+        <v>0.67</v>
+      </c>
+      <c r="D104">
+        <v>0.43</v>
+      </c>
+      <c r="E104">
+        <v>0.69</v>
+      </c>
+      <c r="F104">
+        <v>0.47</v>
+      </c>
+      <c r="G104">
+        <v>0.71</v>
+      </c>
+      <c r="H104">
+        <v>0.34</v>
+      </c>
+      <c r="I104">
+        <v>0.7</v>
+      </c>
+      <c r="J104">
+        <v>0.46</v>
+      </c>
+      <c r="K104">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L104">
+        <v>0.51</v>
+      </c>
+      <c r="M104">
+        <v>0.34</v>
+      </c>
+      <c r="N104">
+        <v>0.4</v>
+      </c>
+      <c r="AD104">
+        <f>AVERAGE(B104:N104)</f>
+        <v>0.49461538461538457</v>
+      </c>
+    </row>
     <row r="105" spans="1:30">
       <c r="A105">
         <f>A102+1</f>
@@ -6117,6 +9676,117 @@
         <v>5.0588235294117656E-2</v>
       </c>
     </row>
+    <row r="106" spans="1:30">
+      <c r="B106">
+        <v>0.66</v>
+      </c>
+      <c r="C106">
+        <v>0.27</v>
+      </c>
+      <c r="D106">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E106">
+        <v>0.26</v>
+      </c>
+      <c r="F106">
+        <v>0.13</v>
+      </c>
+      <c r="G106">
+        <v>0.13</v>
+      </c>
+      <c r="H106">
+        <v>0.1</v>
+      </c>
+      <c r="I106">
+        <v>0.19</v>
+      </c>
+      <c r="J106">
+        <v>0.23</v>
+      </c>
+      <c r="K106">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L106">
+        <v>0.31</v>
+      </c>
+      <c r="M106">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N106">
+        <v>0.16</v>
+      </c>
+      <c r="O106">
+        <v>0.17</v>
+      </c>
+      <c r="P106">
+        <v>0.18</v>
+      </c>
+      <c r="Q106">
+        <v>0.17</v>
+      </c>
+      <c r="R106">
+        <v>0.12</v>
+      </c>
+      <c r="AD106">
+        <f>AVERAGE(B106:R106)</f>
+        <v>0.2064705882352941</v>
+      </c>
+    </row>
+    <row r="107" spans="1:30">
+      <c r="B107">
+        <v>0.79</v>
+      </c>
+      <c r="C107">
+        <v>0.69</v>
+      </c>
+      <c r="D107">
+        <v>0.47</v>
+      </c>
+      <c r="E107">
+        <v>0.45</v>
+      </c>
+      <c r="F107">
+        <v>0.37</v>
+      </c>
+      <c r="G107">
+        <v>0.43</v>
+      </c>
+      <c r="H107">
+        <v>0.35</v>
+      </c>
+      <c r="I107">
+        <v>0.46</v>
+      </c>
+      <c r="J107">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K107">
+        <v>0.54</v>
+      </c>
+      <c r="L107">
+        <v>0.6</v>
+      </c>
+      <c r="M107">
+        <v>0.42</v>
+      </c>
+      <c r="N107">
+        <v>0.44</v>
+      </c>
+      <c r="O107">
+        <v>0.53</v>
+      </c>
+      <c r="P107">
+        <v>0.4</v>
+      </c>
+      <c r="Q107">
+        <v>0.38</v>
+      </c>
+      <c r="AD107">
+        <f>AVERAGE(B107:Q107)</f>
+        <v>0.49375000000000008</v>
+      </c>
+    </row>
     <row r="108" spans="1:30">
       <c r="A108">
         <f>A105+1</f>
@@ -6178,6 +9848,102 @@
         <v>4.5882352941176471E-2</v>
       </c>
     </row>
+    <row r="109" spans="1:30">
+      <c r="B109">
+        <v>0.49</v>
+      </c>
+      <c r="C109">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D109">
+        <v>0.13</v>
+      </c>
+      <c r="E109">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F109">
+        <v>0.12</v>
+      </c>
+      <c r="G109">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H109">
+        <v>0.16</v>
+      </c>
+      <c r="I109">
+        <v>0.08</v>
+      </c>
+      <c r="J109">
+        <v>0.02</v>
+      </c>
+      <c r="K109">
+        <v>0.11</v>
+      </c>
+      <c r="L109">
+        <v>0.05</v>
+      </c>
+      <c r="M109">
+        <v>0.12</v>
+      </c>
+      <c r="N109">
+        <v>0.03</v>
+      </c>
+      <c r="O109">
+        <v>0.12</v>
+      </c>
+      <c r="P109">
+        <v>0.06</v>
+      </c>
+      <c r="Q109">
+        <v>0.05</v>
+      </c>
+      <c r="R109">
+        <v>0.21</v>
+      </c>
+      <c r="AD109">
+        <f>AVERAGE(B109:R109)</f>
+        <v>0.12352941176470592</v>
+      </c>
+    </row>
+    <row r="110" spans="1:30">
+      <c r="B110">
+        <v>0.59</v>
+      </c>
+      <c r="C110">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D110">
+        <v>0.34</v>
+      </c>
+      <c r="E110">
+        <v>0.52</v>
+      </c>
+      <c r="F110">
+        <v>0.45</v>
+      </c>
+      <c r="G110">
+        <v>0.42</v>
+      </c>
+      <c r="H110">
+        <v>0.65</v>
+      </c>
+      <c r="I110">
+        <v>0.46</v>
+      </c>
+      <c r="J110">
+        <v>0.45</v>
+      </c>
+      <c r="K110">
+        <v>0.53</v>
+      </c>
+      <c r="L110">
+        <v>0.7</v>
+      </c>
+      <c r="AD110">
+        <f>AVERAGE(B110:L110)</f>
+        <v>0.51454545454545453</v>
+      </c>
+    </row>
     <row r="111" spans="1:30">
       <c r="A111">
         <f>A108+1</f>
@@ -6245,6 +10011,123 @@
         <v>6.1578947368421046E-2</v>
       </c>
     </row>
+    <row r="112" spans="1:30">
+      <c r="B112">
+        <v>0.11</v>
+      </c>
+      <c r="C112">
+        <v>0.2</v>
+      </c>
+      <c r="D112">
+        <v>0.13</v>
+      </c>
+      <c r="E112">
+        <v>0.18</v>
+      </c>
+      <c r="F112">
+        <v>0.13</v>
+      </c>
+      <c r="G112">
+        <v>0.23</v>
+      </c>
+      <c r="H112">
+        <v>0.11</v>
+      </c>
+      <c r="I112">
+        <v>0.12</v>
+      </c>
+      <c r="J112">
+        <v>0.15</v>
+      </c>
+      <c r="K112">
+        <v>0.08</v>
+      </c>
+      <c r="L112">
+        <v>0.32</v>
+      </c>
+      <c r="M112">
+        <v>0.1</v>
+      </c>
+      <c r="N112">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O112">
+        <v>0.15</v>
+      </c>
+      <c r="P112">
+        <v>0.19</v>
+      </c>
+      <c r="Q112">
+        <v>0.12</v>
+      </c>
+      <c r="R112">
+        <v>0.1</v>
+      </c>
+      <c r="S112">
+        <v>0.27</v>
+      </c>
+      <c r="T112">
+        <v>0.13</v>
+      </c>
+      <c r="AD112">
+        <f>AVERAGE(B112:T112)</f>
+        <v>0.15578947368421053</v>
+      </c>
+    </row>
+    <row r="113" spans="1:30">
+      <c r="B113" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="C113">
+        <v>0.45</v>
+      </c>
+      <c r="D113">
+        <v>0.49</v>
+      </c>
+      <c r="E113">
+        <v>0.64</v>
+      </c>
+      <c r="F113">
+        <v>0.36</v>
+      </c>
+      <c r="G113">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H113">
+        <v>0.4</v>
+      </c>
+      <c r="I113">
+        <v>0.34</v>
+      </c>
+      <c r="J113">
+        <v>0.43</v>
+      </c>
+      <c r="K113">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L113">
+        <v>0.3</v>
+      </c>
+      <c r="M113">
+        <v>0.54</v>
+      </c>
+      <c r="N113">
+        <v>0.54</v>
+      </c>
+      <c r="O113">
+        <v>0.31</v>
+      </c>
+      <c r="P113">
+        <v>0.48</v>
+      </c>
+      <c r="Q113">
+        <v>0.52</v>
+      </c>
+      <c r="AD113">
+        <f>AVERAGE(B113:Q113)</f>
+        <v>0.45999999999999996</v>
+      </c>
+    </row>
     <row r="114" spans="1:30">
       <c r="A114">
         <f>A111+1</f>
@@ -6300,6 +10183,96 @@
         <v>5.4666666666666669E-2</v>
       </c>
     </row>
+    <row r="115" spans="1:30">
+      <c r="B115">
+        <v>0.08</v>
+      </c>
+      <c r="C115">
+        <v>0.04</v>
+      </c>
+      <c r="D115">
+        <v>0.16</v>
+      </c>
+      <c r="E115">
+        <v>0.1</v>
+      </c>
+      <c r="F115">
+        <v>0.08</v>
+      </c>
+      <c r="G115">
+        <v>0.05</v>
+      </c>
+      <c r="H115">
+        <v>0.24</v>
+      </c>
+      <c r="I115">
+        <v>0.12</v>
+      </c>
+      <c r="J115">
+        <v>0.12</v>
+      </c>
+      <c r="K115">
+        <v>0.11</v>
+      </c>
+      <c r="L115">
+        <v>0.18</v>
+      </c>
+      <c r="M115">
+        <v>0.17</v>
+      </c>
+      <c r="N115">
+        <v>0.26</v>
+      </c>
+      <c r="O115">
+        <v>0.21</v>
+      </c>
+      <c r="P115">
+        <v>0.16</v>
+      </c>
+      <c r="AD115">
+        <f>AVERAGE(B115:P115)</f>
+        <v>0.13866666666666666</v>
+      </c>
+    </row>
+    <row r="116" spans="1:30">
+      <c r="B116">
+        <v>0.54</v>
+      </c>
+      <c r="C116">
+        <v>0.45</v>
+      </c>
+      <c r="D116">
+        <v>0.34</v>
+      </c>
+      <c r="E116">
+        <v>0.47</v>
+      </c>
+      <c r="F116">
+        <v>0.27</v>
+      </c>
+      <c r="G116">
+        <v>0.49</v>
+      </c>
+      <c r="H116">
+        <v>0.48</v>
+      </c>
+      <c r="I116">
+        <v>0.34</v>
+      </c>
+      <c r="J116">
+        <v>0.51</v>
+      </c>
+      <c r="K116">
+        <v>0.53</v>
+      </c>
+      <c r="L116">
+        <v>0.61</v>
+      </c>
+      <c r="AD116">
+        <f>AVERAGE(B116:L116)</f>
+        <v>0.45727272727272739</v>
+      </c>
+    </row>
     <row r="117" spans="1:30">
       <c r="A117">
         <f>A114+1</f>
@@ -6358,6 +10331,96 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
+    <row r="118" spans="1:30">
+      <c r="B118">
+        <v>0.13</v>
+      </c>
+      <c r="C118">
+        <v>0.25</v>
+      </c>
+      <c r="D118">
+        <v>0.23</v>
+      </c>
+      <c r="E118">
+        <v>0.15</v>
+      </c>
+      <c r="F118">
+        <v>0.17</v>
+      </c>
+      <c r="G118">
+        <v>0.12</v>
+      </c>
+      <c r="H118">
+        <v>0.1</v>
+      </c>
+      <c r="I118">
+        <v>0.42</v>
+      </c>
+      <c r="J118">
+        <v>0.13</v>
+      </c>
+      <c r="K118">
+        <v>0.18</v>
+      </c>
+      <c r="L118">
+        <v>0.23</v>
+      </c>
+      <c r="M118">
+        <v>0.5</v>
+      </c>
+      <c r="N118">
+        <v>0.15</v>
+      </c>
+      <c r="O118">
+        <v>0.24</v>
+      </c>
+      <c r="P118">
+        <v>0.19</v>
+      </c>
+      <c r="Q118">
+        <v>0.11</v>
+      </c>
+      <c r="AD118">
+        <f>AVERAGE(B118:Q118)</f>
+        <v>0.20624999999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:30">
+      <c r="B119">
+        <v>0.48</v>
+      </c>
+      <c r="C119">
+        <v>0.65</v>
+      </c>
+      <c r="D119">
+        <v>0.4</v>
+      </c>
+      <c r="E119">
+        <v>0.54</v>
+      </c>
+      <c r="F119">
+        <v>0.46</v>
+      </c>
+      <c r="G119">
+        <v>0.83</v>
+      </c>
+      <c r="H119">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I119">
+        <v>0.8</v>
+      </c>
+      <c r="J119">
+        <v>0.45</v>
+      </c>
+      <c r="K119">
+        <v>0.36</v>
+      </c>
+      <c r="AD119">
+        <f>AVERAGE(B119:K119)</f>
+        <v>0.55400000000000005</v>
+      </c>
+    </row>
     <row r="120" spans="1:30">
       <c r="A120">
         <f>A117+1</f>
@@ -6431,6 +10494,129 @@
         <v>2.5714285714285717E-2</v>
       </c>
     </row>
+    <row r="121" spans="1:30">
+      <c r="B121">
+        <v>0.3</v>
+      </c>
+      <c r="C121">
+        <v>0.1</v>
+      </c>
+      <c r="D121">
+        <v>0.37</v>
+      </c>
+      <c r="E121">
+        <v>0.22</v>
+      </c>
+      <c r="F121">
+        <v>0.09</v>
+      </c>
+      <c r="G121">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H121">
+        <v>0.3</v>
+      </c>
+      <c r="I121">
+        <v>0.04</v>
+      </c>
+      <c r="J121">
+        <v>0.11</v>
+      </c>
+      <c r="K121">
+        <v>0.18</v>
+      </c>
+      <c r="L121">
+        <v>0.17</v>
+      </c>
+      <c r="M121">
+        <v>0.32</v>
+      </c>
+      <c r="N121">
+        <v>0.19</v>
+      </c>
+      <c r="O121">
+        <v>0.21</v>
+      </c>
+      <c r="P121">
+        <v>0.33</v>
+      </c>
+      <c r="Q121">
+        <v>0.1</v>
+      </c>
+      <c r="R121">
+        <v>0.4</v>
+      </c>
+      <c r="S121">
+        <v>0.05</v>
+      </c>
+      <c r="T121">
+        <v>0.04</v>
+      </c>
+      <c r="U121">
+        <v>0.09</v>
+      </c>
+      <c r="V121">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AD121">
+        <f t="shared" ref="AD121" si="1">AVERAGE(B121:V121)</f>
+        <v>0.19190476190476188</v>
+      </c>
+    </row>
+    <row r="122" spans="1:30">
+      <c r="B122">
+        <v>0.53</v>
+      </c>
+      <c r="C122">
+        <v>0.47</v>
+      </c>
+      <c r="D122">
+        <v>0.4</v>
+      </c>
+      <c r="E122">
+        <v>0.5</v>
+      </c>
+      <c r="F122">
+        <v>0.65</v>
+      </c>
+      <c r="G122">
+        <v>0.39</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <v>0.76</v>
+      </c>
+      <c r="J122">
+        <v>0.79</v>
+      </c>
+      <c r="K122">
+        <v>0.53</v>
+      </c>
+      <c r="L122">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M122">
+        <v>0.51</v>
+      </c>
+      <c r="N122">
+        <v>0.49</v>
+      </c>
+      <c r="O122">
+        <v>0.36</v>
+      </c>
+      <c r="P122">
+        <v>0.41</v>
+      </c>
+      <c r="Q122">
+        <v>0.52</v>
+      </c>
+      <c r="AD122">
+        <f>AVERAGE(B122:Q122)</f>
+        <v>0.55500000000000005</v>
+      </c>
+    </row>
     <row r="123" spans="1:30">
       <c r="A123">
         <f>A120+1</f>
@@ -6498,6 +10684,111 @@
         <v>5.2631578947368432E-2</v>
       </c>
     </row>
+    <row r="124" spans="1:30">
+      <c r="B124">
+        <v>0.31</v>
+      </c>
+      <c r="C124">
+        <v>0.13</v>
+      </c>
+      <c r="D124">
+        <v>0.3</v>
+      </c>
+      <c r="E124">
+        <v>0.03</v>
+      </c>
+      <c r="F124">
+        <v>0.24</v>
+      </c>
+      <c r="G124">
+        <v>0.17</v>
+      </c>
+      <c r="H124">
+        <v>0.19</v>
+      </c>
+      <c r="I124">
+        <v>0.04</v>
+      </c>
+      <c r="J124">
+        <v>0.04</v>
+      </c>
+      <c r="K124">
+        <v>0.24</v>
+      </c>
+      <c r="L124">
+        <v>0.35</v>
+      </c>
+      <c r="M124">
+        <v>0.4</v>
+      </c>
+      <c r="N124">
+        <v>0.03</v>
+      </c>
+      <c r="O124">
+        <v>0.34</v>
+      </c>
+      <c r="P124">
+        <v>0.16</v>
+      </c>
+      <c r="Q124">
+        <v>0.04</v>
+      </c>
+      <c r="R124">
+        <v>0.18</v>
+      </c>
+      <c r="S124">
+        <v>0.46</v>
+      </c>
+      <c r="T124">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AD124">
+        <f t="shared" ref="AD124" si="2">AVERAGE(B124:T124)</f>
+        <v>0.19578947368421051</v>
+      </c>
+    </row>
+    <row r="125" spans="1:30">
+      <c r="B125">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C125">
+        <v>0.5</v>
+      </c>
+      <c r="D125">
+        <v>0.64</v>
+      </c>
+      <c r="E125">
+        <v>0.46</v>
+      </c>
+      <c r="F125">
+        <v>0.49</v>
+      </c>
+      <c r="G125">
+        <v>0.66</v>
+      </c>
+      <c r="H125">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I125">
+        <v>0.67</v>
+      </c>
+      <c r="J125">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K125">
+        <v>0.77</v>
+      </c>
+      <c r="L125">
+        <v>0.7</v>
+      </c>
+      <c r="M125">
+        <v>0.54</v>
+      </c>
+      <c r="AD125">
+        <f>AVERAGE(B125:M125)</f>
+        <v>0.59416666666666673</v>
+      </c>
+    </row>
     <row r="126" spans="1:30">
       <c r="A126">
         <f>A123+1</f>
@@ -6557,9 +10848,120 @@
       <c r="S126">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="U126" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="AD126">
         <f>AVERAGE(B126:S126)</f>
         <v>3.5555555555555562E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:30">
+      <c r="B127">
+        <v>0.13</v>
+      </c>
+      <c r="C127">
+        <v>0.09</v>
+      </c>
+      <c r="D127">
+        <v>0.1</v>
+      </c>
+      <c r="E127">
+        <v>0.08</v>
+      </c>
+      <c r="F127">
+        <v>0.08</v>
+      </c>
+      <c r="G127">
+        <v>0.13</v>
+      </c>
+      <c r="H127">
+        <v>0.37</v>
+      </c>
+      <c r="I127">
+        <v>0.15</v>
+      </c>
+      <c r="J127">
+        <v>0.09</v>
+      </c>
+      <c r="K127">
+        <v>0.06</v>
+      </c>
+      <c r="L127">
+        <v>0.01</v>
+      </c>
+      <c r="M127">
+        <v>0.12</v>
+      </c>
+      <c r="N127">
+        <v>0.15</v>
+      </c>
+      <c r="O127">
+        <v>0.12</v>
+      </c>
+      <c r="P127">
+        <v>0.06</v>
+      </c>
+      <c r="Q127">
+        <v>0.1</v>
+      </c>
+      <c r="R127">
+        <v>0.05</v>
+      </c>
+      <c r="AD127">
+        <f>AVERAGE(B127:R127)</f>
+        <v>0.11117647058823532</v>
+      </c>
+    </row>
+    <row r="128" spans="1:30">
+      <c r="B128">
+        <v>0.38</v>
+      </c>
+      <c r="C128">
+        <v>0.3</v>
+      </c>
+      <c r="D128">
+        <v>0.53</v>
+      </c>
+      <c r="E128">
+        <v>0.36</v>
+      </c>
+      <c r="F128">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G128">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H128">
+        <v>0.63</v>
+      </c>
+      <c r="I128">
+        <v>0.36</v>
+      </c>
+      <c r="J128">
+        <v>0.32</v>
+      </c>
+      <c r="K128">
+        <v>0.38</v>
+      </c>
+      <c r="L128">
+        <v>0.4</v>
+      </c>
+      <c r="M128">
+        <v>0.47</v>
+      </c>
+      <c r="N128">
+        <v>0.41</v>
+      </c>
+      <c r="O128">
+        <v>0.35</v>
+      </c>
+      <c r="P128">
+        <v>0.33</v>
+      </c>
+      <c r="AD128">
+        <f>AVERAGE(B128:P128)</f>
+        <v>0.42333333333333328</v>
       </c>
     </row>
     <row r="129" spans="1:30">
@@ -6611,6 +11013,90 @@
         <v>6.6923076923076918E-2</v>
       </c>
     </row>
+    <row r="130" spans="1:30">
+      <c r="B130">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C130">
+        <v>0.08</v>
+      </c>
+      <c r="D130">
+        <v>0.08</v>
+      </c>
+      <c r="E130">
+        <v>0.12</v>
+      </c>
+      <c r="F130">
+        <v>0.13</v>
+      </c>
+      <c r="G130">
+        <v>0.18</v>
+      </c>
+      <c r="H130">
+        <v>0.21</v>
+      </c>
+      <c r="I130">
+        <v>0.18</v>
+      </c>
+      <c r="J130">
+        <v>0.42</v>
+      </c>
+      <c r="K130">
+        <v>0.3</v>
+      </c>
+      <c r="L130">
+        <v>0.11</v>
+      </c>
+      <c r="M130">
+        <v>0.19</v>
+      </c>
+      <c r="N130">
+        <v>0.2</v>
+      </c>
+      <c r="AD130">
+        <f t="shared" ref="AD130" si="3">AVERAGE(B130:N130)</f>
+        <v>0.18000000000000002</v>
+      </c>
+    </row>
+    <row r="131" spans="1:30">
+      <c r="B131">
+        <v>0.41</v>
+      </c>
+      <c r="C131">
+        <v>0.45</v>
+      </c>
+      <c r="D131">
+        <v>0.33</v>
+      </c>
+      <c r="E131">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F131">
+        <v>0.32</v>
+      </c>
+      <c r="G131">
+        <v>0.44</v>
+      </c>
+      <c r="H131">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I131">
+        <v>0.6</v>
+      </c>
+      <c r="J131">
+        <v>0.34</v>
+      </c>
+      <c r="K131">
+        <v>0.45</v>
+      </c>
+      <c r="L131">
+        <v>0.92</v>
+      </c>
+      <c r="AD131">
+        <f>AVERAGE(B131:L131)</f>
+        <v>0.49090909090909096</v>
+      </c>
+    </row>
     <row r="132" spans="1:30">
       <c r="A132">
         <f>A129+1</f>
@@ -6687,6 +11173,117 @@
         <v>3.2272727272727279E-2</v>
       </c>
     </row>
+    <row r="133" spans="1:30">
+      <c r="B133">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C133">
+        <v>0.19</v>
+      </c>
+      <c r="D133">
+        <v>0.1</v>
+      </c>
+      <c r="E133">
+        <v>0.04</v>
+      </c>
+      <c r="F133">
+        <v>0.17</v>
+      </c>
+      <c r="G133">
+        <v>0.16</v>
+      </c>
+      <c r="H133">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I133">
+        <v>0.11</v>
+      </c>
+      <c r="J133">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K133">
+        <v>0.17</v>
+      </c>
+      <c r="L133">
+        <v>0.08</v>
+      </c>
+      <c r="M133">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N133">
+        <v>0.08</v>
+      </c>
+      <c r="O133">
+        <v>0.05</v>
+      </c>
+      <c r="P133">
+        <v>0.1</v>
+      </c>
+      <c r="Q133">
+        <v>0.05</v>
+      </c>
+      <c r="R133">
+        <v>0.05</v>
+      </c>
+      <c r="S133">
+        <v>0.12</v>
+      </c>
+      <c r="T133">
+        <v>0.1</v>
+      </c>
+      <c r="U133">
+        <v>0.18</v>
+      </c>
+      <c r="V133">
+        <v>0.1</v>
+      </c>
+      <c r="W133">
+        <v>0.03</v>
+      </c>
+      <c r="AD133">
+        <f t="shared" ref="AD133" si="4">AVERAGE(B133:W133)</f>
+        <v>0.10772727272727275</v>
+      </c>
+    </row>
+    <row r="134" spans="1:30">
+      <c r="B134">
+        <v>0.74</v>
+      </c>
+      <c r="C134">
+        <v>0.31</v>
+      </c>
+      <c r="D134">
+        <v>0.38</v>
+      </c>
+      <c r="E134">
+        <v>0.41</v>
+      </c>
+      <c r="F134">
+        <v>0.8</v>
+      </c>
+      <c r="G134">
+        <v>0.4</v>
+      </c>
+      <c r="H134">
+        <v>0.33</v>
+      </c>
+      <c r="I134">
+        <v>0.4</v>
+      </c>
+      <c r="J134">
+        <v>0.35</v>
+      </c>
+      <c r="K134">
+        <v>0.6</v>
+      </c>
+      <c r="L134">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AD134">
+        <f>AVERAGE(B134:L134)</f>
+        <v>0.4809090909090909</v>
+      </c>
+    </row>
     <row r="135" spans="1:30">
       <c r="A135">
         <f>A132+1</f>
@@ -6742,6 +11339,90 @@
         <v>7.3333333333333334E-2</v>
       </c>
     </row>
+    <row r="136" spans="1:30">
+      <c r="B136">
+        <v>0.17</v>
+      </c>
+      <c r="C136">
+        <v>0.09</v>
+      </c>
+      <c r="D136">
+        <v>0.1</v>
+      </c>
+      <c r="E136">
+        <v>0.06</v>
+      </c>
+      <c r="F136">
+        <v>0.06</v>
+      </c>
+      <c r="G136">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H136">
+        <v>0.18</v>
+      </c>
+      <c r="I136">
+        <v>0.08</v>
+      </c>
+      <c r="J136">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K136">
+        <v>0.1</v>
+      </c>
+      <c r="L136">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M136">
+        <v>0.12</v>
+      </c>
+      <c r="N136">
+        <v>0.06</v>
+      </c>
+      <c r="O136">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P136">
+        <v>0.19</v>
+      </c>
+      <c r="AD136">
+        <f t="shared" ref="AD136" si="5">AVERAGE(B136:P136)</f>
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="137" spans="1:30">
+      <c r="B137">
+        <v>0.53</v>
+      </c>
+      <c r="C137">
+        <v>0.47</v>
+      </c>
+      <c r="D137">
+        <v>0.33</v>
+      </c>
+      <c r="E137">
+        <v>0.4</v>
+      </c>
+      <c r="F137">
+        <v>0.4</v>
+      </c>
+      <c r="G137">
+        <v>0.41</v>
+      </c>
+      <c r="H137">
+        <v>0.32</v>
+      </c>
+      <c r="I137">
+        <v>0.49</v>
+      </c>
+      <c r="J137">
+        <v>0.35</v>
+      </c>
+      <c r="AD137">
+        <f>AVERAGE(B137:J137)</f>
+        <v>0.41111111111111109</v>
+      </c>
+    </row>
     <row r="138" spans="1:30">
       <c r="A138">
         <f>A135+1</f>
@@ -6803,6 +11484,117 @@
         <v>5.0588235294117649E-2</v>
       </c>
     </row>
+    <row r="139" spans="1:30">
+      <c r="B139">
+        <v>0.05</v>
+      </c>
+      <c r="C139">
+        <v>0.09</v>
+      </c>
+      <c r="D139">
+        <v>0.05</v>
+      </c>
+      <c r="E139">
+        <v>0.13</v>
+      </c>
+      <c r="F139">
+        <v>0.2</v>
+      </c>
+      <c r="G139">
+        <v>0.08</v>
+      </c>
+      <c r="H139">
+        <v>0.08</v>
+      </c>
+      <c r="I139">
+        <v>0.31</v>
+      </c>
+      <c r="J139">
+        <v>0.13</v>
+      </c>
+      <c r="K139">
+        <v>0.1</v>
+      </c>
+      <c r="L139">
+        <v>0.26</v>
+      </c>
+      <c r="M139">
+        <v>0.09</v>
+      </c>
+      <c r="N139">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O139">
+        <v>0.32</v>
+      </c>
+      <c r="P139">
+        <v>0.17</v>
+      </c>
+      <c r="Q139">
+        <v>0.21</v>
+      </c>
+      <c r="R139">
+        <v>0.24</v>
+      </c>
+      <c r="AD139">
+        <f t="shared" ref="AD139" si="6">AVERAGE(B139:R139)</f>
+        <v>0.1558823529411765</v>
+      </c>
+    </row>
+    <row r="140" spans="1:30">
+      <c r="B140">
+        <v>0.32</v>
+      </c>
+      <c r="C140">
+        <v>0.31</v>
+      </c>
+      <c r="D140">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E140">
+        <v>0.4</v>
+      </c>
+      <c r="F140">
+        <v>0.33</v>
+      </c>
+      <c r="G140">
+        <v>0.64</v>
+      </c>
+      <c r="H140">
+        <v>0.43</v>
+      </c>
+      <c r="I140">
+        <v>0.38</v>
+      </c>
+      <c r="J140">
+        <v>0.39</v>
+      </c>
+      <c r="K140">
+        <v>0.5</v>
+      </c>
+      <c r="L140">
+        <v>0.38</v>
+      </c>
+      <c r="M140">
+        <v>0.45</v>
+      </c>
+      <c r="N140">
+        <v>0.52</v>
+      </c>
+      <c r="O140">
+        <v>0.44</v>
+      </c>
+      <c r="P140">
+        <v>0.48</v>
+      </c>
+      <c r="Q140">
+        <v>0.31</v>
+      </c>
+      <c r="AD140">
+        <f>AVERAGE(B140:Q140)</f>
+        <v>0.41</v>
+      </c>
+    </row>
     <row r="141" spans="1:30">
       <c r="A141">
         <f>A138+1</f>
@@ -6846,6 +11638,84 @@
         <v>5.5454545454545465E-2</v>
       </c>
     </row>
+    <row r="142" spans="1:30">
+      <c r="B142">
+        <v>0.21</v>
+      </c>
+      <c r="C142">
+        <v>0.12</v>
+      </c>
+      <c r="D142">
+        <v>0.26</v>
+      </c>
+      <c r="E142">
+        <v>0.22</v>
+      </c>
+      <c r="F142">
+        <v>0.2</v>
+      </c>
+      <c r="G142">
+        <v>0.18</v>
+      </c>
+      <c r="H142">
+        <v>0.18</v>
+      </c>
+      <c r="I142">
+        <v>0.26</v>
+      </c>
+      <c r="J142">
+        <v>0.23</v>
+      </c>
+      <c r="K142">
+        <v>0.13</v>
+      </c>
+      <c r="L142">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AD142">
+        <f t="shared" ref="AD142" si="7">AVERAGE(B142:L142)</f>
+        <v>0.20727272727272725</v>
+      </c>
+    </row>
+    <row r="143" spans="1:30">
+      <c r="B143">
+        <v>0.5</v>
+      </c>
+      <c r="C143">
+        <v>0.49</v>
+      </c>
+      <c r="D143">
+        <v>0.44</v>
+      </c>
+      <c r="E143">
+        <v>0.4</v>
+      </c>
+      <c r="F143">
+        <v>0.33</v>
+      </c>
+      <c r="G143">
+        <v>0.34</v>
+      </c>
+      <c r="H143">
+        <v>0.5</v>
+      </c>
+      <c r="I143">
+        <v>0.7</v>
+      </c>
+      <c r="J143">
+        <v>0.75</v>
+      </c>
+      <c r="K143">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L143">
+        <v>0.39</v>
+      </c>
+      <c r="AD143">
+        <f>AVERAGE(B143:L143)</f>
+        <v>0.49</v>
+      </c>
+    </row>
     <row r="144" spans="1:30">
       <c r="A144">
         <f>A141+1</f>
@@ -6890,9 +11760,90 @@
       <c r="N144">
         <v>0.02</v>
       </c>
+      <c r="Q144" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="AD144">
         <f>AVERAGE(B144:N144)</f>
         <v>0.08</v>
+      </c>
+    </row>
+    <row r="145" spans="1:30">
+      <c r="B145">
+        <v>0.36</v>
+      </c>
+      <c r="C145">
+        <v>0.37</v>
+      </c>
+      <c r="D145">
+        <v>0.45</v>
+      </c>
+      <c r="E145">
+        <v>0.26</v>
+      </c>
+      <c r="F145">
+        <v>0.32</v>
+      </c>
+      <c r="G145">
+        <v>0.17</v>
+      </c>
+      <c r="H145">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I145">
+        <v>0.1</v>
+      </c>
+      <c r="J145">
+        <v>0.31</v>
+      </c>
+      <c r="K145">
+        <v>0.37</v>
+      </c>
+      <c r="L145">
+        <v>0.36</v>
+      </c>
+      <c r="M145">
+        <v>0.26</v>
+      </c>
+      <c r="AD145">
+        <f>AVERAGE(B145:M145)</f>
+        <v>0.28916666666666663</v>
+      </c>
+    </row>
+    <row r="146" spans="1:30">
+      <c r="B146">
+        <v>0.67</v>
+      </c>
+      <c r="C146">
+        <v>0.66</v>
+      </c>
+      <c r="D146">
+        <v>0.6</v>
+      </c>
+      <c r="E146">
+        <v>0.48</v>
+      </c>
+      <c r="F146">
+        <v>0.35</v>
+      </c>
+      <c r="G146">
+        <v>0.31</v>
+      </c>
+      <c r="H146">
+        <v>0.48</v>
+      </c>
+      <c r="I146">
+        <v>0.82</v>
+      </c>
+      <c r="J146">
+        <v>0.48</v>
+      </c>
+      <c r="K146">
+        <v>0.35</v>
+      </c>
+      <c r="AD146">
+        <f>AVERAGE(B146:K146)</f>
+        <v>0.51999999999999991</v>
       </c>
     </row>
     <row r="147" spans="1:30">
@@ -6956,9 +11907,111 @@
         <v>3.8235294117647055E-2</v>
       </c>
     </row>
+    <row r="148" spans="1:30">
+      <c r="B148">
+        <v>0.09</v>
+      </c>
+      <c r="C148">
+        <v>0.08</v>
+      </c>
+      <c r="D148">
+        <v>0.03</v>
+      </c>
+      <c r="E148">
+        <v>0.1</v>
+      </c>
+      <c r="F148">
+        <v>0.06</v>
+      </c>
+      <c r="G148">
+        <v>0.02</v>
+      </c>
+      <c r="H148">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I148">
+        <v>0.04</v>
+      </c>
+      <c r="J148">
+        <v>0.13</v>
+      </c>
+      <c r="K148">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L148">
+        <v>0.25</v>
+      </c>
+      <c r="M148">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N148">
+        <v>0.11</v>
+      </c>
+      <c r="O148">
+        <v>0.12</v>
+      </c>
+      <c r="P148">
+        <v>0.09</v>
+      </c>
+      <c r="Q148">
+        <v>0.1</v>
+      </c>
+      <c r="R148">
+        <v>0.05</v>
+      </c>
+      <c r="AD148">
+        <f t="shared" ref="AD148" si="8">AVERAGE(B148:R148)</f>
+        <v>8.7058823529411786E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:30">
+      <c r="B149">
+        <v>0.33</v>
+      </c>
+      <c r="C149">
+        <v>0.35</v>
+      </c>
+      <c r="D149">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E149">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F149">
+        <v>0.6</v>
+      </c>
+      <c r="G149">
+        <v>0.43</v>
+      </c>
+      <c r="H149">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I149">
+        <v>0.53</v>
+      </c>
+      <c r="J149">
+        <v>0.4</v>
+      </c>
+      <c r="K149">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L149">
+        <v>0.38</v>
+      </c>
+      <c r="M149">
+        <v>0.43</v>
+      </c>
+      <c r="N149">
+        <v>0.35</v>
+      </c>
+      <c r="AD149">
+        <f>AVERAGE(B149:N149)</f>
+        <v>0.44461538461538463</v>
+      </c>
+    </row>
     <row r="150" spans="1:30">
       <c r="A150">
-        <f t="shared" ref="A150" si="1">A147+1</f>
+        <f t="shared" ref="A150" si="9">A147+1</f>
         <v>35</v>
       </c>
       <c r="B150">
@@ -7008,7 +12061,95 @@
         <v>5.9285714285714282E-2</v>
       </c>
     </row>
+    <row r="151" spans="1:30">
+      <c r="B151">
+        <v>0.19</v>
+      </c>
+      <c r="C151">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D151">
+        <v>0.15</v>
+      </c>
+      <c r="E151">
+        <v>0.19</v>
+      </c>
+      <c r="F151">
+        <v>0.32</v>
+      </c>
+      <c r="G151">
+        <v>0.18</v>
+      </c>
+      <c r="H151">
+        <v>0.18</v>
+      </c>
+      <c r="I151">
+        <v>0.2</v>
+      </c>
+      <c r="J151">
+        <v>0.13</v>
+      </c>
+      <c r="K151">
+        <v>0.24</v>
+      </c>
+      <c r="L151">
+        <v>0.24</v>
+      </c>
+      <c r="M151">
+        <v>0.19</v>
+      </c>
+      <c r="N151">
+        <v>0.08</v>
+      </c>
+      <c r="O151">
+        <v>0.13</v>
+      </c>
+      <c r="AD151">
+        <f t="shared" ref="AD151" si="10">AVERAGE(B151:O151)</f>
+        <v>0.19285714285714284</v>
+      </c>
+    </row>
+    <row r="152" spans="1:30">
+      <c r="B152">
+        <v>0.47</v>
+      </c>
+      <c r="C152">
+        <v>0.33</v>
+      </c>
+      <c r="D152">
+        <v>0.48</v>
+      </c>
+      <c r="E152">
+        <v>0.5</v>
+      </c>
+      <c r="F152">
+        <v>0.62</v>
+      </c>
+      <c r="G152">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H152">
+        <v>0.52</v>
+      </c>
+      <c r="I152">
+        <v>0.49</v>
+      </c>
+      <c r="J152">
+        <v>0.45</v>
+      </c>
+      <c r="K152">
+        <v>0.38</v>
+      </c>
+      <c r="L152">
+        <v>0.47</v>
+      </c>
+      <c r="AD152">
+        <f>AVERAGE(B152:L152)</f>
+        <v>0.47999999999999993</v>
+      </c>
+    </row>
   </sheetData>
+  <dataConsolidate/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>

--- a/Calculations.xlsx
+++ b/Calculations.xlsx
@@ -3761,15 +3761,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4116,7 +4116,7 @@
   <dimension ref="A1:AH152"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E42" workbookViewId="0">
-      <selection activeCell="AG43" sqref="AG43"/>
+      <selection activeCell="AB44" sqref="AB44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
